--- a/mcmaster_excel/18-8_Stainless_Steel_High-Profile_Narrow_Fillister_Head_Slotted_Screws.xlsx
+++ b/mcmaster_excel/18-8_Stainless_Steel_High-Profile_Narrow_Fillister_Head_Slotted_Screws.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M173"/>
+  <dimension ref="A1:M155"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,90 +434,100 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Lg.</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Threading</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Min.Thread Lg.</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>HeadDia.</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Head Ht.</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Finish</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>TensileStrength, psi</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Specifications Met</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Pkg.Qty.</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr"/>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>Pkg.</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>thread_size</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>material_surface</t>
-        </is>
+      <c r="A1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>0000-160</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
+          <t>Lg.</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Threading</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Min.Thread Lg.</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>HeadDia.</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Head Ht.</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Finish</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>TensileStrength, psi</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Specifications Met</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>Pkg.Qty.</t>
+        </is>
+      </c>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>Pkg.</t>
+        </is>
+      </c>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>18-8 Stainless Steel</t>
-        </is>
-      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -575,7 +585,11 @@
           <t>$12.46</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr"/>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>0000-160</t>
+        </is>
+      </c>
       <c r="M3" t="inlineStr">
         <is>
           <t>18-8 Stainless Steel</t>
@@ -638,7 +652,11 @@
           <t>12.46</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr"/>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>0000-160</t>
+        </is>
+      </c>
       <c r="M4" t="inlineStr">
         <is>
           <t>18-8 Stainless Steel</t>
@@ -701,7 +719,11 @@
           <t>12.46</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr"/>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>0000-160</t>
+        </is>
+      </c>
       <c r="M5" t="inlineStr">
         <is>
           <t>18-8 Stainless Steel</t>
@@ -764,7 +786,11 @@
           <t>12.43</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr"/>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>0000-160</t>
+        </is>
+      </c>
       <c r="M6" t="inlineStr">
         <is>
           <t>18-8 Stainless Steel</t>
@@ -774,20 +800,64 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
+          <t>3/32"</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Fully Threaded</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>__</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.056"</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>0.031"</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>__</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>70,000</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>ASME B18.11, ASME B18.6.3</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>91794A658</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>28.38</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
           <t>000-120</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr"/>
-      <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr"/>
-      <c r="G7" t="inlineStr"/>
-      <c r="H7" t="inlineStr"/>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
       <c r="M7" t="inlineStr">
         <is>
           <t>18-8 Stainless Steel</t>
@@ -797,7 +867,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>3/32"</t>
+          <t>1/8"</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -842,7 +912,7 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>91794A658</t>
+          <t>91794A692</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
@@ -850,7 +920,11 @@
           <t>28.38</t>
         </is>
       </c>
-      <c r="L8" t="inlineStr"/>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>000-120</t>
+        </is>
+      </c>
       <c r="M8" t="inlineStr">
         <is>
           <t>18-8 Stainless Steel</t>
@@ -860,7 +934,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>1/8"</t>
+          <t>3/16"</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -900,20 +974,24 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>91794A692</t>
+          <t>91794A744</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>28.38</t>
-        </is>
-      </c>
-      <c r="L9" t="inlineStr"/>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>000-120</t>
+        </is>
+      </c>
       <c r="M9" t="inlineStr">
         <is>
           <t>18-8 Stainless Steel</t>
@@ -923,7 +1001,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>3/16"</t>
+          <t>1/4"</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -968,15 +1046,19 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>91794A744</t>
+          <t>91794A755</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>2.98</t>
-        </is>
-      </c>
-      <c r="L10" t="inlineStr"/>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>000-120</t>
+        </is>
+      </c>
       <c r="M10" t="inlineStr">
         <is>
           <t>18-8 Stainless Steel</t>
@@ -986,7 +1068,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>1/4"</t>
+          <t>1/8"</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1001,12 +1083,12 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>0.056"</t>
+          <t>0.082"</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>0.031"</t>
+          <t>0.047"</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -1021,7 +1103,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>ASME B18.11, ASME B18.6.3</t>
+          <t>ASME B18.6.3</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -1031,15 +1113,19 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>91794A755</t>
+          <t>91794A138</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>3.14</t>
-        </is>
-      </c>
-      <c r="L11" t="inlineStr"/>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>00-90</t>
+        </is>
+      </c>
       <c r="M11" t="inlineStr">
         <is>
           <t>18-8 Stainless Steel</t>
@@ -1049,20 +1135,64 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
+          <t>3/16"</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Fully Threaded</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>__</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.082"</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>0.047"</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>__</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>70,000</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>ASME B18.6.3</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>91794A174</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
           <t>00-90</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr"/>
-      <c r="C12" t="inlineStr"/>
-      <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr"/>
-      <c r="F12" t="inlineStr"/>
-      <c r="G12" t="inlineStr"/>
-      <c r="H12" t="inlineStr"/>
-      <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
       <c r="M12" t="inlineStr">
         <is>
           <t>18-8 Stainless Steel</t>
@@ -1072,7 +1202,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>1/8"</t>
+          <t>1/4"</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -1117,15 +1247,19 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>91794A138</t>
+          <t>91794A211</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>3.12</t>
-        </is>
-      </c>
-      <c r="L13" t="inlineStr"/>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>00-90</t>
+        </is>
+      </c>
       <c r="M13" t="inlineStr">
         <is>
           <t>18-8 Stainless Steel</t>
@@ -1135,7 +1269,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>3/16"</t>
+          <t>1/8"</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -1180,7 +1314,7 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>91794A174</t>
+          <t>91794A232</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
@@ -1188,7 +1322,11 @@
           <t>3.12</t>
         </is>
       </c>
-      <c r="L14" t="inlineStr"/>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>00-96</t>
+        </is>
+      </c>
       <c r="M14" t="inlineStr">
         <is>
           <t>18-8 Stainless Steel</t>
@@ -1198,7 +1336,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>1/4"</t>
+          <t>3/16"</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -1243,15 +1381,19 @@
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>91794A211</t>
+          <t>91794A259</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>3.28</t>
-        </is>
-      </c>
-      <c r="L15" t="inlineStr"/>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>00-96</t>
+        </is>
+      </c>
       <c r="M15" t="inlineStr">
         <is>
           <t>18-8 Stainless Steel</t>
@@ -1261,20 +1403,64 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
+          <t>1/4"</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Fully Threaded</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>__</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.082"</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>0.047"</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>__</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>70,000</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>ASME B18.6.3</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>91794A282</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
           <t>00-96</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr"/>
-      <c r="C16" t="inlineStr"/>
-      <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr"/>
-      <c r="F16" t="inlineStr"/>
-      <c r="G16" t="inlineStr"/>
-      <c r="H16" t="inlineStr"/>
-      <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
       <c r="M16" t="inlineStr">
         <is>
           <t>18-8 Stainless Steel</t>
@@ -1299,17 +1485,17 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>0.082"</t>
+          <t>0.096"</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>0.047"</t>
+          <t>0.055"</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>__</t>
+          <t>Passivated</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
@@ -1324,20 +1510,24 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>100</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>91794A232</t>
+          <t>91794A052</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>3.12</t>
-        </is>
-      </c>
-      <c r="L17" t="inlineStr"/>
+          <t>14.79</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>0-80</t>
+        </is>
+      </c>
       <c r="M17" t="inlineStr">
         <is>
           <t>18-8 Stainless Steel</t>
@@ -1362,17 +1552,17 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>0.082"</t>
+          <t>0.096"</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>0.047"</t>
+          <t>0.055"</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>__</t>
+          <t>Passivated</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
@@ -1387,20 +1577,24 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>100</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>91794A259</t>
+          <t>91794A054</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>3.12</t>
-        </is>
-      </c>
-      <c r="L18" t="inlineStr"/>
+          <t>14.88</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>0-80</t>
+        </is>
+      </c>
       <c r="M18" t="inlineStr">
         <is>
           <t>18-8 Stainless Steel</t>
@@ -1425,17 +1619,17 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>0.082"</t>
+          <t>0.096"</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>0.047"</t>
+          <t>0.055"</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>__</t>
+          <t>Passivated</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
@@ -1450,20 +1644,24 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>100</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>91794A282</t>
+          <t>91794A055</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>3.28</t>
-        </is>
-      </c>
-      <c r="L19" t="inlineStr"/>
+          <t>15.11</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>0-80</t>
+        </is>
+      </c>
       <c r="M19" t="inlineStr">
         <is>
           <t>18-8 Stainless Steel</t>
@@ -1473,20 +1671,64 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
+          <t>5/16"</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Fully Threaded</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>__</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.096"</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>0.055"</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Passivated</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>70,000</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>ASME B18.6.3</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>91794A056</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>15.72</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
           <t>0-80</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr"/>
-      <c r="C20" t="inlineStr"/>
-      <c r="D20" t="inlineStr"/>
-      <c r="E20" t="inlineStr"/>
-      <c r="F20" t="inlineStr"/>
-      <c r="G20" t="inlineStr"/>
-      <c r="H20" t="inlineStr"/>
-      <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
       <c r="M20" t="inlineStr">
         <is>
           <t>18-8 Stainless Steel</t>
@@ -1496,7 +1738,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>1/8"</t>
+          <t>3/8"</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1541,15 +1783,19 @@
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>91794A052</t>
+          <t>91794A057</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>14.79</t>
-        </is>
-      </c>
-      <c r="L21" t="inlineStr"/>
+          <t>16.10</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>0-80</t>
+        </is>
+      </c>
       <c r="M21" t="inlineStr">
         <is>
           <t>18-8 Stainless Steel</t>
@@ -1559,7 +1805,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>3/16"</t>
+          <t>1/2"</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1599,20 +1845,24 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>50</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>91794A054</t>
+          <t>91794A059</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>14.88</t>
-        </is>
-      </c>
-      <c r="L22" t="inlineStr"/>
+          <t>9.22</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>0-80</t>
+        </is>
+      </c>
       <c r="M22" t="inlineStr">
         <is>
           <t>18-8 Stainless Steel</t>
@@ -1622,7 +1872,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>1/4"</t>
+          <t>5/8"</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1662,20 +1912,24 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>50</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>91794A055</t>
+          <t>91794A060</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>15.11</t>
-        </is>
-      </c>
-      <c r="L23" t="inlineStr"/>
+          <t>9.58</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>0-80</t>
+        </is>
+      </c>
       <c r="M23" t="inlineStr">
         <is>
           <t>18-8 Stainless Steel</t>
@@ -1685,7 +1939,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>5/16"</t>
+          <t>3/4"</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1725,20 +1979,24 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>50</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>91794A056</t>
+          <t>91794A071</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>15.72</t>
-        </is>
-      </c>
-      <c r="L24" t="inlineStr"/>
+          <t>11.37</t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>0-80</t>
+        </is>
+      </c>
       <c r="M24" t="inlineStr">
         <is>
           <t>18-8 Stainless Steel</t>
@@ -1748,7 +2006,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>3/8"</t>
+          <t>1"</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1788,20 +2046,24 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>50</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>91794A057</t>
+          <t>91794A102</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>16.10</t>
-        </is>
-      </c>
-      <c r="L25" t="inlineStr"/>
+          <t>12.48</t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>0-80</t>
+        </is>
+      </c>
       <c r="M25" t="inlineStr">
         <is>
           <t>18-8 Stainless Steel</t>
@@ -1811,7 +2073,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>1/2"</t>
+          <t>1/8"</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1826,12 +2088,12 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>0.096"</t>
+          <t>0.118"</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>0.055"</t>
+          <t>0.066"</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -1851,20 +2113,24 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>100</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>91794A059</t>
+          <t>91794A063</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>9.22</t>
-        </is>
-      </c>
-      <c r="L26" t="inlineStr"/>
+          <t>13.68</t>
+        </is>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>1-72</t>
+        </is>
+      </c>
       <c r="M26" t="inlineStr">
         <is>
           <t>18-8 Stainless Steel</t>
@@ -1874,7 +2140,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>5/8"</t>
+          <t>3/16"</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1889,12 +2155,12 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>0.096"</t>
+          <t>0.118"</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>0.055"</t>
+          <t>0.066"</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -1914,20 +2180,24 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>100</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>91794A060</t>
+          <t>91794A065</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>9.58</t>
-        </is>
-      </c>
-      <c r="L27" t="inlineStr"/>
+          <t>13.60</t>
+        </is>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>1-72</t>
+        </is>
+      </c>
       <c r="M27" t="inlineStr">
         <is>
           <t>18-8 Stainless Steel</t>
@@ -1937,7 +2207,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>3/4"</t>
+          <t>1/4"</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1952,12 +2222,12 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>0.096"</t>
+          <t>0.118"</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>0.055"</t>
+          <t>0.066"</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -1982,15 +2252,19 @@
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>91794A071</t>
+          <t>91794A066</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>11.37</t>
-        </is>
-      </c>
-      <c r="L28" t="inlineStr"/>
+          <t>8.00</t>
+        </is>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>1-72</t>
+        </is>
+      </c>
       <c r="M28" t="inlineStr">
         <is>
           <t>18-8 Stainless Steel</t>
@@ -2000,7 +2274,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>1"</t>
+          <t>3/8"</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -2015,12 +2289,12 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>0.096"</t>
+          <t>0.118"</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>0.055"</t>
+          <t>0.066"</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -2045,15 +2319,19 @@
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>91794A102</t>
+          <t>91794A068</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>12.48</t>
-        </is>
-      </c>
-      <c r="L29" t="inlineStr"/>
+          <t>8.60</t>
+        </is>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>1-72</t>
+        </is>
+      </c>
       <c r="M29" t="inlineStr">
         <is>
           <t>18-8 Stainless Steel</t>
@@ -2063,20 +2341,64 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
+          <t>1/2"</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Fully Threaded</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>__</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.118"</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>0.066"</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Passivated</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>70,000</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>ASME B18.6.3</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>91794A070</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>8.81</t>
+        </is>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
           <t>1-72</t>
         </is>
       </c>
-      <c r="B30" t="inlineStr"/>
-      <c r="C30" t="inlineStr"/>
-      <c r="D30" t="inlineStr"/>
-      <c r="E30" t="inlineStr"/>
-      <c r="F30" t="inlineStr"/>
-      <c r="G30" t="inlineStr"/>
-      <c r="H30" t="inlineStr"/>
-      <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
       <c r="M30" t="inlineStr">
         <is>
           <t>18-8 Stainless Steel</t>
@@ -2086,7 +2408,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>1/8"</t>
+          <t>5/8"</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -2126,20 +2448,24 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>50</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>91794A063</t>
+          <t>91794A120</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>13.68</t>
-        </is>
-      </c>
-      <c r="L31" t="inlineStr"/>
+          <t>11.11</t>
+        </is>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>1-72</t>
+        </is>
+      </c>
       <c r="M31" t="inlineStr">
         <is>
           <t>18-8 Stainless Steel</t>
@@ -2149,7 +2475,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>3/16"</t>
+          <t>3/4"</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -2189,20 +2515,24 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>50</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>91794A065</t>
+          <t>91794A130</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>13.60</t>
-        </is>
-      </c>
-      <c r="L32" t="inlineStr"/>
+          <t>12.39</t>
+        </is>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>1-72</t>
+        </is>
+      </c>
       <c r="M32" t="inlineStr">
         <is>
           <t>18-8 Stainless Steel</t>
@@ -2212,7 +2542,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>1/4"</t>
+          <t>1"</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -2252,20 +2582,24 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>25</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>91794A066</t>
+          <t>91794A186</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>8.00</t>
-        </is>
-      </c>
-      <c r="L33" t="inlineStr"/>
+          <t>7.06</t>
+        </is>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>1-72</t>
+        </is>
+      </c>
       <c r="M33" t="inlineStr">
         <is>
           <t>18-8 Stainless Steel</t>
@@ -2275,7 +2609,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>3/8"</t>
+          <t>1/8"</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -2290,12 +2624,12 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>0.118"</t>
+          <t>0.140"</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>0.066"</t>
+          <t>0.083"</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
@@ -2315,20 +2649,24 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>100</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>91794A068</t>
+          <t>91794A074</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>8.60</t>
-        </is>
-      </c>
-      <c r="L34" t="inlineStr"/>
+          <t>15.20</t>
+        </is>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>2-56</t>
+        </is>
+      </c>
       <c r="M34" t="inlineStr">
         <is>
           <t>18-8 Stainless Steel</t>
@@ -2338,7 +2676,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>1/2"</t>
+          <t>3/16"</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -2353,12 +2691,12 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>0.118"</t>
+          <t>0.140"</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>0.066"</t>
+          <t>0.083"</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -2378,20 +2716,24 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>100</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>91794A070</t>
+          <t>91794A076</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>8.81</t>
-        </is>
-      </c>
-      <c r="L35" t="inlineStr"/>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>2-56</t>
+        </is>
+      </c>
       <c r="M35" t="inlineStr">
         <is>
           <t>18-8 Stainless Steel</t>
@@ -2401,7 +2743,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>5/8"</t>
+          <t>1/4"</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -2416,12 +2758,12 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>0.118"</t>
+          <t>0.140"</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>0.066"</t>
+          <t>0.083"</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
@@ -2441,20 +2783,24 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>100</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>91794A120</t>
+          <t>91794A077</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>11.11</t>
-        </is>
-      </c>
-      <c r="L36" t="inlineStr"/>
+          <t>6.28</t>
+        </is>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>2-56</t>
+        </is>
+      </c>
       <c r="M36" t="inlineStr">
         <is>
           <t>18-8 Stainless Steel</t>
@@ -2464,7 +2810,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>3/4"</t>
+          <t>5/16"</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -2479,12 +2825,12 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>0.118"</t>
+          <t>0.140"</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>0.066"</t>
+          <t>0.083"</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -2504,20 +2850,24 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>100</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>91794A130</t>
+          <t>91794A078</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>12.39</t>
-        </is>
-      </c>
-      <c r="L37" t="inlineStr"/>
+          <t>6.55</t>
+        </is>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>2-56</t>
+        </is>
+      </c>
       <c r="M37" t="inlineStr">
         <is>
           <t>18-8 Stainless Steel</t>
@@ -2527,7 +2877,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>1"</t>
+          <t>3/8"</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -2542,12 +2892,12 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>0.118"</t>
+          <t>0.140"</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>0.066"</t>
+          <t>0.083"</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
@@ -2567,20 +2917,24 @@
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>100</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>91794A186</t>
+          <t>91794A079</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>7.06</t>
-        </is>
-      </c>
-      <c r="L38" t="inlineStr"/>
+          <t>6.63</t>
+        </is>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>2-56</t>
+        </is>
+      </c>
       <c r="M38" t="inlineStr">
         <is>
           <t>18-8 Stainless Steel</t>
@@ -2590,7 +2944,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>1/8"</t>
+          <t>7/16"</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -2635,12 +2989,12 @@
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>91794A074</t>
+          <t>91794A080</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>15.20</t>
+          <t>6.91</t>
         </is>
       </c>
       <c r="L39" t="inlineStr">
@@ -2657,7 +3011,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>3/16"</t>
+          <t>1/2"</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -2702,12 +3056,12 @@
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>91794A076</t>
+          <t>91794A081</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>5.10</t>
+          <t>7.26</t>
         </is>
       </c>
       <c r="L40" t="inlineStr">
@@ -2724,7 +3078,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>1/4"</t>
+          <t>5/8"</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -2769,12 +3123,12 @@
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>91794A077</t>
+          <t>91794A083</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>6.28</t>
+          <t>7.41</t>
         </is>
       </c>
       <c r="L41" t="inlineStr">
@@ -2791,7 +3145,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>5/16"</t>
+          <t>3/4"</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -2836,12 +3190,12 @@
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>91794A078</t>
+          <t>91794A084</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>6.55</t>
+          <t>8.32</t>
         </is>
       </c>
       <c r="L42" t="inlineStr">
@@ -2858,7 +3212,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>3/8"</t>
+          <t>7/8"</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -2903,12 +3257,12 @@
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>91794A079</t>
+          <t>91794A085</t>
         </is>
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>6.63</t>
+          <t>8.51</t>
         </is>
       </c>
       <c r="L43" t="inlineStr">
@@ -2925,7 +3279,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>7/16"</t>
+          <t>1"</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -2970,12 +3324,12 @@
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>91794A080</t>
+          <t>91794A086</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>6.91</t>
+          <t>9.81</t>
         </is>
       </c>
       <c r="L44" t="inlineStr">
@@ -3032,22 +3386,22 @@
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>50</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>91794A081</t>
+          <t>91794A218</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>7.26</t>
+          <t>11.30</t>
         </is>
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>2-56</t>
+          <t>2-64</t>
         </is>
       </c>
       <c r="M45" t="inlineStr">
@@ -3059,7 +3413,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>5/8"</t>
+          <t>1/8"</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -3074,12 +3428,12 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>0.140"</t>
+          <t>0.161"</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>0.083"</t>
+          <t>0.095"</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
@@ -3104,17 +3458,17 @@
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>91794A083</t>
+          <t>91794A089</t>
         </is>
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>7.41</t>
+          <t>15.02</t>
         </is>
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>2-56</t>
+          <t>3-48</t>
         </is>
       </c>
       <c r="M46" t="inlineStr">
@@ -3126,7 +3480,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>3/4"</t>
+          <t>3/16"</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -3141,12 +3495,12 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>0.140"</t>
+          <t>0.161"</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>0.083"</t>
+          <t>0.095"</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
@@ -3171,17 +3525,17 @@
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>91794A084</t>
+          <t>91794A091</t>
         </is>
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>8.32</t>
+          <t>10.19</t>
         </is>
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>2-56</t>
+          <t>3-48</t>
         </is>
       </c>
       <c r="M47" t="inlineStr">
@@ -3193,7 +3547,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>7/8"</t>
+          <t>1/4"</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -3208,12 +3562,12 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>0.140"</t>
+          <t>0.161"</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>0.083"</t>
+          <t>0.095"</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
@@ -3238,17 +3592,17 @@
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>91794A085</t>
+          <t>91794A092</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>8.51</t>
+          <t>7.94</t>
         </is>
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>2-56</t>
+          <t>3-48</t>
         </is>
       </c>
       <c r="M48" t="inlineStr">
@@ -3260,7 +3614,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>1"</t>
+          <t>5/16"</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -3275,12 +3629,12 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>0.140"</t>
+          <t>0.161"</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>0.083"</t>
+          <t>0.095"</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
@@ -3305,17 +3659,17 @@
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>91794A086</t>
+          <t>91794A093</t>
         </is>
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>9.81</t>
+          <t>8.82</t>
         </is>
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>2-56</t>
+          <t>3-48</t>
         </is>
       </c>
       <c r="M49" t="inlineStr">
@@ -3327,22 +3681,62 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>2-64</t>
-        </is>
-      </c>
-      <c r="B50" t="inlineStr"/>
-      <c r="C50" t="inlineStr"/>
-      <c r="D50" t="inlineStr"/>
-      <c r="E50" t="inlineStr"/>
-      <c r="F50" t="inlineStr"/>
-      <c r="G50" t="inlineStr"/>
-      <c r="H50" t="inlineStr"/>
-      <c r="I50" t="inlineStr"/>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
+          <t>3/8"</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Fully Threaded</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>__</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.161"</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>0.095"</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>Passivated</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>70,000</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>ASME B18.6.3</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>91794A094</t>
+        </is>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>9.43</t>
+        </is>
+      </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>2-56</t>
+          <t>3-48</t>
         </is>
       </c>
       <c r="M50" t="inlineStr">
@@ -3369,12 +3763,12 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>0.140"</t>
+          <t>0.161"</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>0.083"</t>
+          <t>0.095"</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
@@ -3394,22 +3788,22 @@
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>100</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>91794A218</t>
+          <t>91794A096</t>
         </is>
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>11.30</t>
+          <t>10.55</t>
         </is>
       </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>2-56</t>
+          <t>3-48</t>
         </is>
       </c>
       <c r="M51" t="inlineStr">
@@ -3421,22 +3815,62 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
+          <t>5/8"</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Fully Threaded</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>__</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.161"</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>0.095"</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>Passivated</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>70,000</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>ASME B18.6.3</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>91794A098</t>
+        </is>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>13.21</t>
+        </is>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
           <t>3-48</t>
-        </is>
-      </c>
-      <c r="B52" t="inlineStr"/>
-      <c r="C52" t="inlineStr"/>
-      <c r="D52" t="inlineStr"/>
-      <c r="E52" t="inlineStr"/>
-      <c r="F52" t="inlineStr"/>
-      <c r="G52" t="inlineStr"/>
-      <c r="H52" t="inlineStr"/>
-      <c r="I52" t="inlineStr"/>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>2-56</t>
         </is>
       </c>
       <c r="M52" t="inlineStr">
@@ -3448,7 +3882,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>1/8"</t>
+          <t>3/4"</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -3488,22 +3922,22 @@
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>50</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>91794A089</t>
+          <t>91794A099</t>
         </is>
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>15.02</t>
+          <t>7.55</t>
         </is>
       </c>
       <c r="L53" t="inlineStr">
         <is>
-          <t>2-56</t>
+          <t>3-48</t>
         </is>
       </c>
       <c r="M53" t="inlineStr">
@@ -3515,7 +3949,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>3/16"</t>
+          <t>1"</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -3555,22 +3989,22 @@
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>50</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>91794A091</t>
+          <t>91794A101</t>
         </is>
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>10.19</t>
+          <t>11.07</t>
         </is>
       </c>
       <c r="L54" t="inlineStr">
         <is>
-          <t>2-56</t>
+          <t>3-48</t>
         </is>
       </c>
       <c r="M54" t="inlineStr">
@@ -3582,7 +4016,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>1/4"</t>
+          <t>1/8"</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -3597,12 +4031,12 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>0.161"</t>
+          <t>0.183"</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>0.095"</t>
+          <t>0.107"</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
@@ -3627,17 +4061,17 @@
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>91794A092</t>
+          <t>91794A103</t>
         </is>
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>7.94</t>
+          <t>12.50</t>
         </is>
       </c>
       <c r="L55" t="inlineStr">
         <is>
-          <t>2-56</t>
+          <t>4-40</t>
         </is>
       </c>
       <c r="M55" t="inlineStr">
@@ -3649,7 +4083,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>5/16"</t>
+          <t>3/16"</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -3664,12 +4098,12 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>0.161"</t>
+          <t>0.183"</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>0.095"</t>
+          <t>0.107"</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
@@ -3694,17 +4128,17 @@
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>91794A093</t>
+          <t>91794A105</t>
         </is>
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>8.82</t>
+          <t>6.08</t>
         </is>
       </c>
       <c r="L56" t="inlineStr">
         <is>
-          <t>2-56</t>
+          <t>4-40</t>
         </is>
       </c>
       <c r="M56" t="inlineStr">
@@ -3716,7 +4150,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>3/8"</t>
+          <t>1/4"</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -3731,12 +4165,12 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>0.161"</t>
+          <t>0.183"</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>0.095"</t>
+          <t>0.107"</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
@@ -3761,17 +4195,17 @@
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>91794A094</t>
+          <t>91794A106</t>
         </is>
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>9.43</t>
+          <t>6.45</t>
         </is>
       </c>
       <c r="L57" t="inlineStr">
         <is>
-          <t>2-56</t>
+          <t>4-40</t>
         </is>
       </c>
       <c r="M57" t="inlineStr">
@@ -3783,7 +4217,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>1/2"</t>
+          <t>5/16"</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -3798,12 +4232,12 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>0.161"</t>
+          <t>0.183"</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>0.095"</t>
+          <t>0.107"</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
@@ -3828,17 +4262,17 @@
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>91794A096</t>
+          <t>91794A107</t>
         </is>
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>10.55</t>
+          <t>6.53</t>
         </is>
       </c>
       <c r="L58" t="inlineStr">
         <is>
-          <t>2-56</t>
+          <t>4-40</t>
         </is>
       </c>
       <c r="M58" t="inlineStr">
@@ -3850,7 +4284,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>5/8"</t>
+          <t>3/8"</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -3865,12 +4299,12 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>0.161"</t>
+          <t>0.183"</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>0.095"</t>
+          <t>0.107"</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
@@ -3895,17 +4329,17 @@
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>91794A098</t>
+          <t>91794A108</t>
         </is>
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>13.21</t>
+          <t>7.36</t>
         </is>
       </c>
       <c r="L59" t="inlineStr">
         <is>
-          <t>2-56</t>
+          <t>4-40</t>
         </is>
       </c>
       <c r="M59" t="inlineStr">
@@ -3917,7 +4351,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>3/4"</t>
+          <t>7/16"</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -3932,12 +4366,12 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>0.161"</t>
+          <t>0.183"</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>0.095"</t>
+          <t>0.107"</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
@@ -3957,22 +4391,22 @@
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>100</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>91794A099</t>
+          <t>91794A109</t>
         </is>
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>7.55</t>
+          <t>7.60</t>
         </is>
       </c>
       <c r="L60" t="inlineStr">
         <is>
-          <t>2-56</t>
+          <t>4-40</t>
         </is>
       </c>
       <c r="M60" t="inlineStr">
@@ -3984,7 +4418,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>1"</t>
+          <t>1/2"</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -3999,12 +4433,12 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>0.161"</t>
+          <t>0.183"</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>0.095"</t>
+          <t>0.107"</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
@@ -4024,22 +4458,22 @@
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>100</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>91794A101</t>
+          <t>91794A110</t>
         </is>
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>11.07</t>
+          <t>8.63</t>
         </is>
       </c>
       <c r="L61" t="inlineStr">
         <is>
-          <t>2-56</t>
+          <t>4-40</t>
         </is>
       </c>
       <c r="M61" t="inlineStr">
@@ -4051,22 +4485,62 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
+          <t>5/8"</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>Fully Threaded</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>__</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.183"</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>0.107"</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>Passivated</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>70,000</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>ASME B18.6.3</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>91794A112</t>
+        </is>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>8.82</t>
+        </is>
+      </c>
+      <c r="L62" t="inlineStr">
+        <is>
           <t>4-40</t>
-        </is>
-      </c>
-      <c r="B62" t="inlineStr"/>
-      <c r="C62" t="inlineStr"/>
-      <c r="D62" t="inlineStr"/>
-      <c r="E62" t="inlineStr"/>
-      <c r="F62" t="inlineStr"/>
-      <c r="G62" t="inlineStr"/>
-      <c r="H62" t="inlineStr"/>
-      <c r="I62" t="inlineStr"/>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>2-56</t>
         </is>
       </c>
       <c r="M62" t="inlineStr">
@@ -4078,7 +4552,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>1/8"</t>
+          <t>3/4"</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -4123,17 +4597,17 @@
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>91794A103</t>
+          <t>91794A113</t>
         </is>
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>12.50</t>
+          <t>9.77</t>
         </is>
       </c>
       <c r="L63" t="inlineStr">
         <is>
-          <t>2-56</t>
+          <t>4-40</t>
         </is>
       </c>
       <c r="M63" t="inlineStr">
@@ -4145,7 +4619,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>3/16"</t>
+          <t>1"</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -4190,17 +4664,17 @@
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>91794A105</t>
+          <t>91794A115</t>
         </is>
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>6.08</t>
+          <t>11.10</t>
         </is>
       </c>
       <c r="L64" t="inlineStr">
         <is>
-          <t>2-56</t>
+          <t>4-40</t>
         </is>
       </c>
       <c r="M64" t="inlineStr">
@@ -4212,7 +4686,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>1/4"</t>
+          <t>1 1/4"</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -4257,17 +4731,17 @@
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>91794A106</t>
+          <t>91794A117</t>
         </is>
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>6.45</t>
+          <t>14.98</t>
         </is>
       </c>
       <c r="L65" t="inlineStr">
         <is>
-          <t>2-56</t>
+          <t>4-40</t>
         </is>
       </c>
       <c r="M65" t="inlineStr">
@@ -4279,7 +4753,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>5/16"</t>
+          <t>1 1/2"</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -4324,17 +4798,17 @@
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>91794A107</t>
+          <t>91794A119</t>
         </is>
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>6.53</t>
+          <t>16.41</t>
         </is>
       </c>
       <c r="L66" t="inlineStr">
         <is>
-          <t>2-56</t>
+          <t>4-40</t>
         </is>
       </c>
       <c r="M66" t="inlineStr">
@@ -4346,7 +4820,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>3/8"</t>
+          <t>1/4"</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -4386,22 +4860,22 @@
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>50</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>91794A108</t>
+          <t>91794A741</t>
         </is>
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>7.36</t>
+          <t>8.81</t>
         </is>
       </c>
       <c r="L67" t="inlineStr">
         <is>
-          <t>2-56</t>
+          <t>4-48</t>
         </is>
       </c>
       <c r="M67" t="inlineStr">
@@ -4413,7 +4887,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>7/16"</t>
+          <t>3/8"</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -4453,22 +4927,22 @@
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>50</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>91794A109</t>
+          <t>91794A742</t>
         </is>
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>7.60</t>
+          <t>9.26</t>
         </is>
       </c>
       <c r="L68" t="inlineStr">
         <is>
-          <t>2-56</t>
+          <t>4-48</t>
         </is>
       </c>
       <c r="M68" t="inlineStr">
@@ -4520,22 +4994,22 @@
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>50</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>91794A110</t>
+          <t>91794A743</t>
         </is>
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>8.63</t>
+          <t>10.72</t>
         </is>
       </c>
       <c r="L69" t="inlineStr">
         <is>
-          <t>2-56</t>
+          <t>4-48</t>
         </is>
       </c>
       <c r="M69" t="inlineStr">
@@ -4547,7 +5021,7 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>5/8"</t>
+          <t>3/4"</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -4587,22 +5061,22 @@
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>50</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>91794A112</t>
+          <t>91794A745</t>
         </is>
       </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t>8.82</t>
+          <t>13.09</t>
         </is>
       </c>
       <c r="L70" t="inlineStr">
         <is>
-          <t>2-56</t>
+          <t>4-48</t>
         </is>
       </c>
       <c r="M70" t="inlineStr">
@@ -4614,7 +5088,7 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>3/4"</t>
+          <t>1"</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -4654,22 +5128,22 @@
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>25</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>91794A113</t>
+          <t>91794A746</t>
         </is>
       </c>
       <c r="K71" t="inlineStr">
         <is>
-          <t>9.77</t>
+          <t>9.27</t>
         </is>
       </c>
       <c r="L71" t="inlineStr">
         <is>
-          <t>2-56</t>
+          <t>4-48</t>
         </is>
       </c>
       <c r="M71" t="inlineStr">
@@ -4681,7 +5155,7 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>1"</t>
+          <t>3/16"</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -4696,12 +5170,12 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>0.183"</t>
+          <t>0.205"</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>0.107"</t>
+          <t>0.120"</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
@@ -4726,17 +5200,17 @@
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>91794A115</t>
+          <t>91794A123</t>
         </is>
       </c>
       <c r="K72" t="inlineStr">
         <is>
-          <t>11.10</t>
+          <t>11.55</t>
         </is>
       </c>
       <c r="L72" t="inlineStr">
         <is>
-          <t>2-56</t>
+          <t>5-40</t>
         </is>
       </c>
       <c r="M72" t="inlineStr">
@@ -4748,7 +5222,7 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>1 1/4"</t>
+          <t>1/4"</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -4763,12 +5237,12 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>0.183"</t>
+          <t>0.205"</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>0.107"</t>
+          <t>0.120"</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
@@ -4793,17 +5267,17 @@
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>91794A117</t>
+          <t>91794A124</t>
         </is>
       </c>
       <c r="K73" t="inlineStr">
         <is>
-          <t>14.98</t>
+          <t>7.71</t>
         </is>
       </c>
       <c r="L73" t="inlineStr">
         <is>
-          <t>2-56</t>
+          <t>5-40</t>
         </is>
       </c>
       <c r="M73" t="inlineStr">
@@ -4815,7 +5289,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>1 1/2"</t>
+          <t>5/16"</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -4830,12 +5304,12 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>0.183"</t>
+          <t>0.205"</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>0.107"</t>
+          <t>0.120"</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
@@ -4860,17 +5334,17 @@
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>91794A119</t>
+          <t>91794A125</t>
         </is>
       </c>
       <c r="K74" t="inlineStr">
         <is>
-          <t>16.41</t>
+          <t>8.79</t>
         </is>
       </c>
       <c r="L74" t="inlineStr">
         <is>
-          <t>2-56</t>
+          <t>5-40</t>
         </is>
       </c>
       <c r="M74" t="inlineStr">
@@ -4882,22 +5356,62 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>4-48</t>
-        </is>
-      </c>
-      <c r="B75" t="inlineStr"/>
-      <c r="C75" t="inlineStr"/>
-      <c r="D75" t="inlineStr"/>
-      <c r="E75" t="inlineStr"/>
-      <c r="F75" t="inlineStr"/>
-      <c r="G75" t="inlineStr"/>
-      <c r="H75" t="inlineStr"/>
-      <c r="I75" t="inlineStr"/>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
+          <t>3/8"</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>Fully Threaded</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>__</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>0.205"</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>0.120"</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>Passivated</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>70,000</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>ASME B18.6.3</t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>91794A126</t>
+        </is>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>9.85</t>
+        </is>
+      </c>
       <c r="L75" t="inlineStr">
         <is>
-          <t>2-56</t>
+          <t>5-40</t>
         </is>
       </c>
       <c r="M75" t="inlineStr">
@@ -4909,7 +5423,7 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>1/4"</t>
+          <t>1/2"</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -4924,12 +5438,12 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>0.183"</t>
+          <t>0.205"</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>0.107"</t>
+          <t>0.120"</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
@@ -4949,22 +5463,22 @@
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>100</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
         <is>
-          <t>91794A741</t>
+          <t>91794A128</t>
         </is>
       </c>
       <c r="K76" t="inlineStr">
         <is>
-          <t>8.81</t>
+          <t>10.52</t>
         </is>
       </c>
       <c r="L76" t="inlineStr">
         <is>
-          <t>2-56</t>
+          <t>5-40</t>
         </is>
       </c>
       <c r="M76" t="inlineStr">
@@ -4976,7 +5490,7 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>3/8"</t>
+          <t>3/4"</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -4991,12 +5505,12 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>0.183"</t>
+          <t>0.205"</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>0.107"</t>
+          <t>0.120"</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
@@ -5016,22 +5530,22 @@
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>100</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>91794A742</t>
+          <t>91794A131</t>
         </is>
       </c>
       <c r="K77" t="inlineStr">
         <is>
-          <t>9.26</t>
+          <t>11.65</t>
         </is>
       </c>
       <c r="L77" t="inlineStr">
         <is>
-          <t>2-56</t>
+          <t>5-40</t>
         </is>
       </c>
       <c r="M77" t="inlineStr">
@@ -5043,7 +5557,7 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>1/2"</t>
+          <t>1"</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -5058,12 +5572,12 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>0.183"</t>
+          <t>0.205"</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>0.107"</t>
+          <t>0.120"</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
@@ -5083,22 +5597,22 @@
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>100</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>91794A743</t>
+          <t>91794A133</t>
         </is>
       </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t>10.72</t>
+          <t>13.32</t>
         </is>
       </c>
       <c r="L78" t="inlineStr">
         <is>
-          <t>2-56</t>
+          <t>5-40</t>
         </is>
       </c>
       <c r="M78" t="inlineStr">
@@ -5110,7 +5624,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>3/4"</t>
+          <t>3/16"</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -5125,12 +5639,12 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>0.183"</t>
+          <t>0.226"</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>0.107"</t>
+          <t>0.132"</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
@@ -5150,22 +5664,22 @@
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>100</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>91794A745</t>
+          <t>91794A143</t>
         </is>
       </c>
       <c r="K79" t="inlineStr">
         <is>
-          <t>13.09</t>
+          <t>7.22</t>
         </is>
       </c>
       <c r="L79" t="inlineStr">
         <is>
-          <t>2-56</t>
+          <t>6-32</t>
         </is>
       </c>
       <c r="M79" t="inlineStr">
@@ -5177,7 +5691,7 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>1"</t>
+          <t>1/4"</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -5192,12 +5706,12 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>0.183"</t>
+          <t>0.226"</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>0.107"</t>
+          <t>0.132"</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
@@ -5217,22 +5731,22 @@
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>100</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t>91794A746</t>
+          <t>91794A144</t>
         </is>
       </c>
       <c r="K80" t="inlineStr">
         <is>
-          <t>9.27</t>
+          <t>7.55</t>
         </is>
       </c>
       <c r="L80" t="inlineStr">
         <is>
-          <t>2-56</t>
+          <t>6-32</t>
         </is>
       </c>
       <c r="M80" t="inlineStr">
@@ -5244,22 +5758,62 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>5-40</t>
-        </is>
-      </c>
-      <c r="B81" t="inlineStr"/>
-      <c r="C81" t="inlineStr"/>
-      <c r="D81" t="inlineStr"/>
-      <c r="E81" t="inlineStr"/>
-      <c r="F81" t="inlineStr"/>
-      <c r="G81" t="inlineStr"/>
-      <c r="H81" t="inlineStr"/>
-      <c r="I81" t="inlineStr"/>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
+          <t>5/16"</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>Fully Threaded</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>__</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>0.226"</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>0.132"</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>Passivated</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>70,000</t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>ASME B18.6.3</t>
+        </is>
+      </c>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>91794A145</t>
+        </is>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>7.88</t>
+        </is>
+      </c>
       <c r="L81" t="inlineStr">
         <is>
-          <t>2-56</t>
+          <t>6-32</t>
         </is>
       </c>
       <c r="M81" t="inlineStr">
@@ -5271,7 +5825,7 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>3/16"</t>
+          <t>3/8"</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
@@ -5286,12 +5840,12 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>0.205"</t>
+          <t>0.226"</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>0.120"</t>
+          <t>0.132"</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
@@ -5316,17 +5870,17 @@
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>91794A123</t>
+          <t>91794A146</t>
         </is>
       </c>
       <c r="K82" t="inlineStr">
         <is>
-          <t>11.55</t>
+          <t>8.00</t>
         </is>
       </c>
       <c r="L82" t="inlineStr">
         <is>
-          <t>2-56</t>
+          <t>6-32</t>
         </is>
       </c>
       <c r="M82" t="inlineStr">
@@ -5338,7 +5892,7 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>1/4"</t>
+          <t>1/2"</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
@@ -5353,12 +5907,12 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>0.205"</t>
+          <t>0.226"</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>0.120"</t>
+          <t>0.132"</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
@@ -5383,17 +5937,17 @@
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>91794A124</t>
+          <t>91794A148</t>
         </is>
       </c>
       <c r="K83" t="inlineStr">
         <is>
-          <t>7.71</t>
+          <t>8.61</t>
         </is>
       </c>
       <c r="L83" t="inlineStr">
         <is>
-          <t>2-56</t>
+          <t>6-32</t>
         </is>
       </c>
       <c r="M83" t="inlineStr">
@@ -5405,7 +5959,7 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>5/16"</t>
+          <t>5/8"</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
@@ -5420,12 +5974,12 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>0.205"</t>
+          <t>0.226"</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>0.120"</t>
+          <t>0.132"</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
@@ -5450,17 +6004,17 @@
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t>91794A125</t>
+          <t>91794A150</t>
         </is>
       </c>
       <c r="K84" t="inlineStr">
         <is>
-          <t>8.79</t>
+          <t>9.80</t>
         </is>
       </c>
       <c r="L84" t="inlineStr">
         <is>
-          <t>2-56</t>
+          <t>6-32</t>
         </is>
       </c>
       <c r="M84" t="inlineStr">
@@ -5472,7 +6026,7 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>3/8"</t>
+          <t>3/4"</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
@@ -5487,12 +6041,12 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>0.205"</t>
+          <t>0.226"</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>0.120"</t>
+          <t>0.132"</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
@@ -5517,17 +6071,17 @@
       </c>
       <c r="J85" t="inlineStr">
         <is>
-          <t>91794A126</t>
+          <t>91794A151</t>
         </is>
       </c>
       <c r="K85" t="inlineStr">
         <is>
-          <t>9.85</t>
+          <t>10.32</t>
         </is>
       </c>
       <c r="L85" t="inlineStr">
         <is>
-          <t>2-56</t>
+          <t>6-32</t>
         </is>
       </c>
       <c r="M85" t="inlineStr">
@@ -5539,7 +6093,7 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>1/2"</t>
+          <t>7/8"</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
@@ -5554,12 +6108,12 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>0.205"</t>
+          <t>0.226"</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>0.120"</t>
+          <t>0.132"</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
@@ -5584,17 +6138,17 @@
       </c>
       <c r="J86" t="inlineStr">
         <is>
-          <t>91794A128</t>
+          <t>91794A152</t>
         </is>
       </c>
       <c r="K86" t="inlineStr">
         <is>
-          <t>10.52</t>
+          <t>11.40</t>
         </is>
       </c>
       <c r="L86" t="inlineStr">
         <is>
-          <t>2-56</t>
+          <t>6-32</t>
         </is>
       </c>
       <c r="M86" t="inlineStr">
@@ -5606,7 +6160,7 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>3/4"</t>
+          <t>1"</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
@@ -5621,12 +6175,12 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>0.205"</t>
+          <t>0.226"</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>0.120"</t>
+          <t>0.132"</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
@@ -5651,17 +6205,17 @@
       </c>
       <c r="J87" t="inlineStr">
         <is>
-          <t>91794A131</t>
+          <t>91794A153</t>
         </is>
       </c>
       <c r="K87" t="inlineStr">
         <is>
-          <t>11.65</t>
+          <t>13.15</t>
         </is>
       </c>
       <c r="L87" t="inlineStr">
         <is>
-          <t>2-56</t>
+          <t>6-32</t>
         </is>
       </c>
       <c r="M87" t="inlineStr">
@@ -5673,7 +6227,7 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>1"</t>
+          <t>1 1/4"</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
@@ -5688,12 +6242,12 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>0.205"</t>
+          <t>0.226"</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>0.120"</t>
+          <t>0.132"</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
@@ -5718,17 +6272,17 @@
       </c>
       <c r="J88" t="inlineStr">
         <is>
-          <t>91794A133</t>
+          <t>91794A155</t>
         </is>
       </c>
       <c r="K88" t="inlineStr">
         <is>
-          <t>13.32</t>
+          <t>15.62</t>
         </is>
       </c>
       <c r="L88" t="inlineStr">
         <is>
-          <t>2-56</t>
+          <t>6-32</t>
         </is>
       </c>
       <c r="M88" t="inlineStr">
@@ -5740,22 +6294,62 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
+          <t>1 1/2"</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>Fully Threaded</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>__</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>0.226"</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>0.132"</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>Passivated</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>70,000</t>
+        </is>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>ASME B18.6.3</t>
+        </is>
+      </c>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>91794A157</t>
+        </is>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>19.84</t>
+        </is>
+      </c>
+      <c r="L89" t="inlineStr">
+        <is>
           <t>6-32</t>
-        </is>
-      </c>
-      <c r="B89" t="inlineStr"/>
-      <c r="C89" t="inlineStr"/>
-      <c r="D89" t="inlineStr"/>
-      <c r="E89" t="inlineStr"/>
-      <c r="F89" t="inlineStr"/>
-      <c r="G89" t="inlineStr"/>
-      <c r="H89" t="inlineStr"/>
-      <c r="I89" t="inlineStr"/>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>2-56</t>
         </is>
       </c>
       <c r="M89" t="inlineStr">
@@ -5767,7 +6361,7 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>3/16"</t>
+          <t>2"</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
@@ -5807,22 +6401,22 @@
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>50</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
         <is>
-          <t>91794A143</t>
+          <t>91794A159</t>
         </is>
       </c>
       <c r="K90" t="inlineStr">
         <is>
-          <t>7.22</t>
+          <t>12.07</t>
         </is>
       </c>
       <c r="L90" t="inlineStr">
         <is>
-          <t>2-56</t>
+          <t>6-32</t>
         </is>
       </c>
       <c r="M90" t="inlineStr">
@@ -5834,7 +6428,7 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>1/4"</t>
+          <t>3/16"</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
@@ -5849,12 +6443,12 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>0.226"</t>
+          <t>0.270"</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>0.132"</t>
+          <t>0.156"</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
@@ -5879,17 +6473,17 @@
       </c>
       <c r="J91" t="inlineStr">
         <is>
-          <t>91794A144</t>
+          <t>91794A189</t>
         </is>
       </c>
       <c r="K91" t="inlineStr">
         <is>
-          <t>7.55</t>
+          <t>15.49</t>
         </is>
       </c>
       <c r="L91" t="inlineStr">
         <is>
-          <t>2-56</t>
+          <t>8-32</t>
         </is>
       </c>
       <c r="M91" t="inlineStr">
@@ -5901,7 +6495,7 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>5/16"</t>
+          <t>1/4"</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
@@ -5916,12 +6510,12 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>0.226"</t>
+          <t>0.270"</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>0.132"</t>
+          <t>0.156"</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
@@ -5946,17 +6540,17 @@
       </c>
       <c r="J92" t="inlineStr">
         <is>
-          <t>91794A145</t>
+          <t>91794A190</t>
         </is>
       </c>
       <c r="K92" t="inlineStr">
         <is>
-          <t>7.88</t>
+          <t>10.24</t>
         </is>
       </c>
       <c r="L92" t="inlineStr">
         <is>
-          <t>2-56</t>
+          <t>8-32</t>
         </is>
       </c>
       <c r="M92" t="inlineStr">
@@ -5968,7 +6562,7 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>3/8"</t>
+          <t>5/16"</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
@@ -5983,12 +6577,12 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>0.226"</t>
+          <t>0.270"</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>0.132"</t>
+          <t>0.156"</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
@@ -6013,17 +6607,17 @@
       </c>
       <c r="J93" t="inlineStr">
         <is>
-          <t>91794A146</t>
+          <t>91794A191</t>
         </is>
       </c>
       <c r="K93" t="inlineStr">
         <is>
-          <t>8.00</t>
+          <t>10.45</t>
         </is>
       </c>
       <c r="L93" t="inlineStr">
         <is>
-          <t>2-56</t>
+          <t>8-32</t>
         </is>
       </c>
       <c r="M93" t="inlineStr">
@@ -6035,7 +6629,7 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>1/2"</t>
+          <t>3/8"</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
@@ -6050,12 +6644,12 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>0.226"</t>
+          <t>0.270"</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>0.132"</t>
+          <t>0.156"</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
@@ -6080,17 +6674,17 @@
       </c>
       <c r="J94" t="inlineStr">
         <is>
-          <t>91794A148</t>
+          <t>91794A192</t>
         </is>
       </c>
       <c r="K94" t="inlineStr">
         <is>
-          <t>8.61</t>
+          <t>11.52</t>
         </is>
       </c>
       <c r="L94" t="inlineStr">
         <is>
-          <t>2-56</t>
+          <t>8-32</t>
         </is>
       </c>
       <c r="M94" t="inlineStr">
@@ -6102,7 +6696,7 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>5/8"</t>
+          <t>1/2"</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
@@ -6117,12 +6711,12 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>0.226"</t>
+          <t>0.270"</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>0.132"</t>
+          <t>0.156"</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
@@ -6147,17 +6741,17 @@
       </c>
       <c r="J95" t="inlineStr">
         <is>
-          <t>91794A150</t>
+          <t>91794A194</t>
         </is>
       </c>
       <c r="K95" t="inlineStr">
         <is>
-          <t>9.80</t>
+          <t>12.85</t>
         </is>
       </c>
       <c r="L95" t="inlineStr">
         <is>
-          <t>2-56</t>
+          <t>8-32</t>
         </is>
       </c>
       <c r="M95" t="inlineStr">
@@ -6169,7 +6763,7 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>3/4"</t>
+          <t>5/8"</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
@@ -6184,12 +6778,12 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>0.226"</t>
+          <t>0.270"</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>0.132"</t>
+          <t>0.156"</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
@@ -6214,17 +6808,17 @@
       </c>
       <c r="J96" t="inlineStr">
         <is>
-          <t>91794A151</t>
+          <t>91794A196</t>
         </is>
       </c>
       <c r="K96" t="inlineStr">
         <is>
-          <t>10.32</t>
+          <t>13.32</t>
         </is>
       </c>
       <c r="L96" t="inlineStr">
         <is>
-          <t>2-56</t>
+          <t>8-32</t>
         </is>
       </c>
       <c r="M96" t="inlineStr">
@@ -6236,7 +6830,7 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>7/8"</t>
+          <t>3/4"</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
@@ -6251,12 +6845,12 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>0.226"</t>
+          <t>0.270"</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>0.132"</t>
+          <t>0.156"</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
@@ -6281,17 +6875,17 @@
       </c>
       <c r="J97" t="inlineStr">
         <is>
-          <t>91794A152</t>
+          <t>91794A197</t>
         </is>
       </c>
       <c r="K97" t="inlineStr">
         <is>
-          <t>11.40</t>
+          <t>15.18</t>
         </is>
       </c>
       <c r="L97" t="inlineStr">
         <is>
-          <t>2-56</t>
+          <t>8-32</t>
         </is>
       </c>
       <c r="M97" t="inlineStr">
@@ -6303,7 +6897,7 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>1"</t>
+          <t>7/8"</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
@@ -6318,12 +6912,12 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>0.226"</t>
+          <t>0.270"</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>0.132"</t>
+          <t>0.156"</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
@@ -6348,17 +6942,17 @@
       </c>
       <c r="J98" t="inlineStr">
         <is>
-          <t>91794A153</t>
+          <t>91794A198</t>
         </is>
       </c>
       <c r="K98" t="inlineStr">
         <is>
-          <t>13.15</t>
+          <t>15.56</t>
         </is>
       </c>
       <c r="L98" t="inlineStr">
         <is>
-          <t>2-56</t>
+          <t>8-32</t>
         </is>
       </c>
       <c r="M98" t="inlineStr">
@@ -6370,7 +6964,7 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>1 1/4"</t>
+          <t>1"</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
@@ -6385,12 +6979,12 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>0.226"</t>
+          <t>0.270"</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>0.132"</t>
+          <t>0.156"</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
@@ -6415,17 +7009,17 @@
       </c>
       <c r="J99" t="inlineStr">
         <is>
-          <t>91794A155</t>
+          <t>91794A199</t>
         </is>
       </c>
       <c r="K99" t="inlineStr">
         <is>
-          <t>15.62</t>
+          <t>17.70</t>
         </is>
       </c>
       <c r="L99" t="inlineStr">
         <is>
-          <t>2-56</t>
+          <t>8-32</t>
         </is>
       </c>
       <c r="M99" t="inlineStr">
@@ -6437,7 +7031,7 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>1 1/2"</t>
+          <t>1 1/4"</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
@@ -6452,12 +7046,12 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>0.226"</t>
+          <t>0.270"</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>0.132"</t>
+          <t>0.156"</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
@@ -6477,22 +7071,22 @@
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>50</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
         <is>
-          <t>91794A157</t>
+          <t>91794A201</t>
         </is>
       </c>
       <c r="K100" t="inlineStr">
         <is>
-          <t>19.84</t>
+          <t>9.61</t>
         </is>
       </c>
       <c r="L100" t="inlineStr">
         <is>
-          <t>2-56</t>
+          <t>8-32</t>
         </is>
       </c>
       <c r="M100" t="inlineStr">
@@ -6504,7 +7098,7 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>2"</t>
+          <t>1 1/2"</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
@@ -6519,12 +7113,12 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>0.226"</t>
+          <t>0.270"</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>0.132"</t>
+          <t>0.156"</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
@@ -6549,17 +7143,17 @@
       </c>
       <c r="J101" t="inlineStr">
         <is>
-          <t>91794A159</t>
+          <t>91794A203</t>
         </is>
       </c>
       <c r="K101" t="inlineStr">
         <is>
-          <t>12.07</t>
+          <t>11.45</t>
         </is>
       </c>
       <c r="L101" t="inlineStr">
         <is>
-          <t>2-56</t>
+          <t>8-32</t>
         </is>
       </c>
       <c r="M101" t="inlineStr">
@@ -6571,22 +7165,62 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
+          <t>1 3/4"</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>Fully Threaded</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>__</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>0.270"</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>0.156"</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>Passivated</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>70,000</t>
+        </is>
+      </c>
+      <c r="H102" t="inlineStr">
+        <is>
+          <t>ASME B18.6.3</t>
+        </is>
+      </c>
+      <c r="I102" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="J102" t="inlineStr">
+        <is>
+          <t>91794A204</t>
+        </is>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>11.75</t>
+        </is>
+      </c>
+      <c r="L102" t="inlineStr">
+        <is>
           <t>8-32</t>
-        </is>
-      </c>
-      <c r="B102" t="inlineStr"/>
-      <c r="C102" t="inlineStr"/>
-      <c r="D102" t="inlineStr"/>
-      <c r="E102" t="inlineStr"/>
-      <c r="F102" t="inlineStr"/>
-      <c r="G102" t="inlineStr"/>
-      <c r="H102" t="inlineStr"/>
-      <c r="I102" t="inlineStr"/>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>2-56</t>
         </is>
       </c>
       <c r="M102" t="inlineStr">
@@ -6598,7 +7232,7 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>3/16"</t>
+          <t>2"</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
@@ -6638,22 +7272,22 @@
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>50</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
         <is>
-          <t>91794A189</t>
+          <t>91794A205</t>
         </is>
       </c>
       <c r="K103" t="inlineStr">
         <is>
-          <t>15.49</t>
+          <t>16.30</t>
         </is>
       </c>
       <c r="L103" t="inlineStr">
         <is>
-          <t>2-56</t>
+          <t>8-32</t>
         </is>
       </c>
       <c r="M103" t="inlineStr">
@@ -6665,17 +7299,17 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>1/4"</t>
+          <t>2 1/2"</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Fully Threaded</t>
+          <t>Partially Threaded</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>__</t>
+          <t>1 1/2"</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
@@ -6705,22 +7339,22 @@
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>25</t>
         </is>
       </c>
       <c r="J104" t="inlineStr">
         <is>
-          <t>91794A190</t>
+          <t>91794A207</t>
         </is>
       </c>
       <c r="K104" t="inlineStr">
         <is>
-          <t>10.24</t>
+          <t>10.71</t>
         </is>
       </c>
       <c r="L104" t="inlineStr">
         <is>
-          <t>2-56</t>
+          <t>8-32</t>
         </is>
       </c>
       <c r="M104" t="inlineStr">
@@ -6747,12 +7381,12 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>0.270"</t>
+          <t>0.313"</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>0.156"</t>
+          <t>0.180"</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
@@ -6777,17 +7411,17 @@
       </c>
       <c r="J105" t="inlineStr">
         <is>
-          <t>91794A191</t>
+          <t>91794A239</t>
         </is>
       </c>
       <c r="K105" t="inlineStr">
         <is>
-          <t>10.45</t>
+          <t>16.44</t>
         </is>
       </c>
       <c r="L105" t="inlineStr">
         <is>
-          <t>2-56</t>
+          <t>10-24</t>
         </is>
       </c>
       <c r="M105" t="inlineStr">
@@ -6814,12 +7448,12 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>0.270"</t>
+          <t>0.313"</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>0.156"</t>
+          <t>0.180"</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
@@ -6844,17 +7478,17 @@
       </c>
       <c r="J106" t="inlineStr">
         <is>
-          <t>91794A192</t>
+          <t>91794A240</t>
         </is>
       </c>
       <c r="K106" t="inlineStr">
         <is>
-          <t>11.52</t>
+          <t>17.15</t>
         </is>
       </c>
       <c r="L106" t="inlineStr">
         <is>
-          <t>2-56</t>
+          <t>10-24</t>
         </is>
       </c>
       <c r="M106" t="inlineStr">
@@ -6881,12 +7515,12 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>0.270"</t>
+          <t>0.313"</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>0.156"</t>
+          <t>0.180"</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
@@ -6911,17 +7545,17 @@
       </c>
       <c r="J107" t="inlineStr">
         <is>
-          <t>91794A194</t>
+          <t>91794A242</t>
         </is>
       </c>
       <c r="K107" t="inlineStr">
         <is>
-          <t>12.85</t>
+          <t>18.17</t>
         </is>
       </c>
       <c r="L107" t="inlineStr">
         <is>
-          <t>2-56</t>
+          <t>10-24</t>
         </is>
       </c>
       <c r="M107" t="inlineStr">
@@ -6948,12 +7582,12 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>0.270"</t>
+          <t>0.313"</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>0.156"</t>
+          <t>0.180"</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
@@ -6978,17 +7612,17 @@
       </c>
       <c r="J108" t="inlineStr">
         <is>
-          <t>91794A196</t>
+          <t>91794A244</t>
         </is>
       </c>
       <c r="K108" t="inlineStr">
         <is>
-          <t>13.32</t>
+          <t>20.99</t>
         </is>
       </c>
       <c r="L108" t="inlineStr">
         <is>
-          <t>2-56</t>
+          <t>10-24</t>
         </is>
       </c>
       <c r="M108" t="inlineStr">
@@ -7015,12 +7649,12 @@
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>0.270"</t>
+          <t>0.313"</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>0.156"</t>
+          <t>0.180"</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
@@ -7040,22 +7674,22 @@
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>50</t>
         </is>
       </c>
       <c r="J109" t="inlineStr">
         <is>
-          <t>91794A197</t>
+          <t>91794A245</t>
         </is>
       </c>
       <c r="K109" t="inlineStr">
         <is>
-          <t>15.18</t>
+          <t>12.39</t>
         </is>
       </c>
       <c r="L109" t="inlineStr">
         <is>
-          <t>2-56</t>
+          <t>10-24</t>
         </is>
       </c>
       <c r="M109" t="inlineStr">
@@ -7067,7 +7701,7 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>7/8"</t>
+          <t>1"</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
@@ -7082,12 +7716,12 @@
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>0.270"</t>
+          <t>0.313"</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>0.156"</t>
+          <t>0.180"</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
@@ -7107,22 +7741,22 @@
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>50</t>
         </is>
       </c>
       <c r="J110" t="inlineStr">
         <is>
-          <t>91794A198</t>
+          <t>91794A247</t>
         </is>
       </c>
       <c r="K110" t="inlineStr">
         <is>
-          <t>15.56</t>
+          <t>14.15</t>
         </is>
       </c>
       <c r="L110" t="inlineStr">
         <is>
-          <t>2-56</t>
+          <t>10-24</t>
         </is>
       </c>
       <c r="M110" t="inlineStr">
@@ -7134,7 +7768,7 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>1"</t>
+          <t>1 1/4"</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
@@ -7149,12 +7783,12 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>0.270"</t>
+          <t>0.313"</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>0.156"</t>
+          <t>0.180"</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
@@ -7174,22 +7808,22 @@
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>50</t>
         </is>
       </c>
       <c r="J111" t="inlineStr">
         <is>
-          <t>91794A199</t>
+          <t>91794A249</t>
         </is>
       </c>
       <c r="K111" t="inlineStr">
         <is>
-          <t>17.70</t>
+          <t>17.86</t>
         </is>
       </c>
       <c r="L111" t="inlineStr">
         <is>
-          <t>2-56</t>
+          <t>10-24</t>
         </is>
       </c>
       <c r="M111" t="inlineStr">
@@ -7201,7 +7835,7 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>1 1/4"</t>
+          <t>1 1/2"</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
@@ -7216,12 +7850,12 @@
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>0.270"</t>
+          <t>0.313"</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>0.156"</t>
+          <t>0.180"</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
@@ -7246,17 +7880,17 @@
       </c>
       <c r="J112" t="inlineStr">
         <is>
-          <t>91794A201</t>
+          <t>91794A251</t>
         </is>
       </c>
       <c r="K112" t="inlineStr">
         <is>
-          <t>9.61</t>
+          <t>19.11</t>
         </is>
       </c>
       <c r="L112" t="inlineStr">
         <is>
-          <t>2-56</t>
+          <t>10-24</t>
         </is>
       </c>
       <c r="M112" t="inlineStr">
@@ -7268,7 +7902,7 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>1 1/2"</t>
+          <t>2"</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
@@ -7283,12 +7917,12 @@
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>0.270"</t>
+          <t>0.313"</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>0.156"</t>
+          <t>0.180"</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
@@ -7308,22 +7942,22 @@
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>25</t>
         </is>
       </c>
       <c r="J113" t="inlineStr">
         <is>
-          <t>91794A203</t>
+          <t>91794A253</t>
         </is>
       </c>
       <c r="K113" t="inlineStr">
         <is>
-          <t>11.45</t>
+          <t>12.58</t>
         </is>
       </c>
       <c r="L113" t="inlineStr">
         <is>
-          <t>2-56</t>
+          <t>10-24</t>
         </is>
       </c>
       <c r="M113" t="inlineStr">
@@ -7335,27 +7969,27 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>1 3/4"</t>
+          <t>3"</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Fully Threaded</t>
+          <t>Partially Threaded</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>__</t>
+          <t>1 1/2"</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>0.270"</t>
+          <t>0.313"</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>0.156"</t>
+          <t>0.180"</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
@@ -7375,22 +8009,22 @@
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>25</t>
         </is>
       </c>
       <c r="J114" t="inlineStr">
         <is>
-          <t>91794A204</t>
+          <t>91794A257</t>
         </is>
       </c>
       <c r="K114" t="inlineStr">
         <is>
-          <t>11.75</t>
+          <t>16.05</t>
         </is>
       </c>
       <c r="L114" t="inlineStr">
         <is>
-          <t>2-56</t>
+          <t>10-24</t>
         </is>
       </c>
       <c r="M114" t="inlineStr">
@@ -7402,7 +8036,7 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>2"</t>
+          <t>1/4"</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
@@ -7417,12 +8051,12 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>0.270"</t>
+          <t>0.313"</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>0.156"</t>
+          <t>0.180"</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
@@ -7442,22 +8076,22 @@
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>100</t>
         </is>
       </c>
       <c r="J115" t="inlineStr">
         <is>
-          <t>91794A205</t>
+          <t>91794A825</t>
         </is>
       </c>
       <c r="K115" t="inlineStr">
         <is>
-          <t>16.30</t>
+          <t>16.25</t>
         </is>
       </c>
       <c r="L115" t="inlineStr">
         <is>
-          <t>2-56</t>
+          <t>10-32</t>
         </is>
       </c>
       <c r="M115" t="inlineStr">
@@ -7469,27 +8103,27 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>2 1/2"</t>
+          <t>5/16"</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Partially Threaded</t>
+          <t>Fully Threaded</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>1 1/2"</t>
+          <t>__</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>0.270"</t>
+          <t>0.313"</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>0.156"</t>
+          <t>0.180"</t>
         </is>
       </c>
       <c r="F116" t="inlineStr">
@@ -7509,22 +8143,22 @@
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>100</t>
         </is>
       </c>
       <c r="J116" t="inlineStr">
         <is>
-          <t>91794A207</t>
+          <t>91794A826</t>
         </is>
       </c>
       <c r="K116" t="inlineStr">
         <is>
-          <t>10.71</t>
+          <t>16.44</t>
         </is>
       </c>
       <c r="L116" t="inlineStr">
         <is>
-          <t>2-56</t>
+          <t>10-32</t>
         </is>
       </c>
       <c r="M116" t="inlineStr">
@@ -7536,22 +8170,62 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>10-24</t>
-        </is>
-      </c>
-      <c r="B117" t="inlineStr"/>
-      <c r="C117" t="inlineStr"/>
-      <c r="D117" t="inlineStr"/>
-      <c r="E117" t="inlineStr"/>
-      <c r="F117" t="inlineStr"/>
-      <c r="G117" t="inlineStr"/>
-      <c r="H117" t="inlineStr"/>
-      <c r="I117" t="inlineStr"/>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
+          <t>3/8"</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>Fully Threaded</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>__</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>0.313"</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>0.180"</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>Passivated</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>70,000</t>
+        </is>
+      </c>
+      <c r="H117" t="inlineStr">
+        <is>
+          <t>ASME B18.6.3</t>
+        </is>
+      </c>
+      <c r="I117" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="J117" t="inlineStr">
+        <is>
+          <t>91794A827</t>
+        </is>
+      </c>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>17.15</t>
+        </is>
+      </c>
       <c r="L117" t="inlineStr">
         <is>
-          <t>2-56</t>
+          <t>10-32</t>
         </is>
       </c>
       <c r="M117" t="inlineStr">
@@ -7563,7 +8237,7 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>5/16"</t>
+          <t>7/16"</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
@@ -7608,17 +8282,17 @@
       </c>
       <c r="J118" t="inlineStr">
         <is>
-          <t>91794A239</t>
+          <t>91794A828</t>
         </is>
       </c>
       <c r="K118" t="inlineStr">
         <is>
-          <t>16.44</t>
+          <t>17.72</t>
         </is>
       </c>
       <c r="L118" t="inlineStr">
         <is>
-          <t>2-56</t>
+          <t>10-32</t>
         </is>
       </c>
       <c r="M118" t="inlineStr">
@@ -7630,7 +8304,7 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>3/8"</t>
+          <t>1/2"</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
@@ -7675,17 +8349,17 @@
       </c>
       <c r="J119" t="inlineStr">
         <is>
-          <t>91794A240</t>
+          <t>91794A829</t>
         </is>
       </c>
       <c r="K119" t="inlineStr">
         <is>
-          <t>17.15</t>
+          <t>18.17</t>
         </is>
       </c>
       <c r="L119" t="inlineStr">
         <is>
-          <t>2-56</t>
+          <t>10-32</t>
         </is>
       </c>
       <c r="M119" t="inlineStr">
@@ -7697,7 +8371,7 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>1/2"</t>
+          <t>5/8"</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
@@ -7742,17 +8416,17 @@
       </c>
       <c r="J120" t="inlineStr">
         <is>
-          <t>91794A242</t>
+          <t>91794A830</t>
         </is>
       </c>
       <c r="K120" t="inlineStr">
         <is>
-          <t>18.17</t>
+          <t>20.99</t>
         </is>
       </c>
       <c r="L120" t="inlineStr">
         <is>
-          <t>2-56</t>
+          <t>10-32</t>
         </is>
       </c>
       <c r="M120" t="inlineStr">
@@ -7764,7 +8438,7 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>5/8"</t>
+          <t>3/4"</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
@@ -7804,22 +8478,22 @@
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>50</t>
         </is>
       </c>
       <c r="J121" t="inlineStr">
         <is>
-          <t>91794A244</t>
+          <t>91794A831</t>
         </is>
       </c>
       <c r="K121" t="inlineStr">
         <is>
-          <t>20.99</t>
+          <t>12.39</t>
         </is>
       </c>
       <c r="L121" t="inlineStr">
         <is>
-          <t>2-56</t>
+          <t>10-32</t>
         </is>
       </c>
       <c r="M121" t="inlineStr">
@@ -7831,7 +8505,7 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>3/4"</t>
+          <t>7/8"</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
@@ -7876,17 +8550,17 @@
       </c>
       <c r="J122" t="inlineStr">
         <is>
-          <t>91794A245</t>
+          <t>91794A832</t>
         </is>
       </c>
       <c r="K122" t="inlineStr">
         <is>
-          <t>12.39</t>
+          <t>12.98</t>
         </is>
       </c>
       <c r="L122" t="inlineStr">
         <is>
-          <t>2-56</t>
+          <t>10-32</t>
         </is>
       </c>
       <c r="M122" t="inlineStr">
@@ -7943,7 +8617,7 @@
       </c>
       <c r="J123" t="inlineStr">
         <is>
-          <t>91794A247</t>
+          <t>91794A833</t>
         </is>
       </c>
       <c r="K123" t="inlineStr">
@@ -7953,7 +8627,7 @@
       </c>
       <c r="L123" t="inlineStr">
         <is>
-          <t>2-56</t>
+          <t>10-32</t>
         </is>
       </c>
       <c r="M123" t="inlineStr">
@@ -8010,7 +8684,7 @@
       </c>
       <c r="J124" t="inlineStr">
         <is>
-          <t>91794A249</t>
+          <t>91794A835</t>
         </is>
       </c>
       <c r="K124" t="inlineStr">
@@ -8020,7 +8694,7 @@
       </c>
       <c r="L124" t="inlineStr">
         <is>
-          <t>2-56</t>
+          <t>10-32</t>
         </is>
       </c>
       <c r="M124" t="inlineStr">
@@ -8077,7 +8751,7 @@
       </c>
       <c r="J125" t="inlineStr">
         <is>
-          <t>91794A251</t>
+          <t>91794A836</t>
         </is>
       </c>
       <c r="K125" t="inlineStr">
@@ -8087,7 +8761,7 @@
       </c>
       <c r="L125" t="inlineStr">
         <is>
-          <t>2-56</t>
+          <t>10-32</t>
         </is>
       </c>
       <c r="M125" t="inlineStr">
@@ -8099,7 +8773,7 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>2"</t>
+          <t>1 3/4"</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
@@ -8139,22 +8813,22 @@
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>50</t>
         </is>
       </c>
       <c r="J126" t="inlineStr">
         <is>
-          <t>91794A253</t>
+          <t>91794A837</t>
         </is>
       </c>
       <c r="K126" t="inlineStr">
         <is>
-          <t>12.58</t>
+          <t>22.71</t>
         </is>
       </c>
       <c r="L126" t="inlineStr">
         <is>
-          <t>2-56</t>
+          <t>10-32</t>
         </is>
       </c>
       <c r="M126" t="inlineStr">
@@ -8166,17 +8840,17 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>3"</t>
+          <t>2"</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>Partially Threaded</t>
+          <t>Fully Threaded</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>1 1/2"</t>
+          <t>__</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
@@ -8211,17 +8885,17 @@
       </c>
       <c r="J127" t="inlineStr">
         <is>
-          <t>91794A257</t>
+          <t>91794A838</t>
         </is>
       </c>
       <c r="K127" t="inlineStr">
         <is>
-          <t>16.05</t>
+          <t>12.58</t>
         </is>
       </c>
       <c r="L127" t="inlineStr">
         <is>
-          <t>2-56</t>
+          <t>10-32</t>
         </is>
       </c>
       <c r="M127" t="inlineStr">
@@ -8233,22 +8907,62 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
+          <t>2 1/4"</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>Partially Threaded</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>1 1/2"</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>0.313"</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>0.180"</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>Passivated</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>70,000</t>
+        </is>
+      </c>
+      <c r="H128" t="inlineStr">
+        <is>
+          <t>ASME B18.6.3</t>
+        </is>
+      </c>
+      <c r="I128" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="J128" t="inlineStr">
+        <is>
+          <t>91794A839</t>
+        </is>
+      </c>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>12.84</t>
+        </is>
+      </c>
+      <c r="L128" t="inlineStr">
+        <is>
           <t>10-32</t>
-        </is>
-      </c>
-      <c r="B128" t="inlineStr"/>
-      <c r="C128" t="inlineStr"/>
-      <c r="D128" t="inlineStr"/>
-      <c r="E128" t="inlineStr"/>
-      <c r="F128" t="inlineStr"/>
-      <c r="G128" t="inlineStr"/>
-      <c r="H128" t="inlineStr"/>
-      <c r="I128" t="inlineStr"/>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr">
-        <is>
-          <t>2-56</t>
         </is>
       </c>
       <c r="M128" t="inlineStr">
@@ -8260,17 +8974,17 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>1/4"</t>
+          <t>2 1/2"</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Fully Threaded</t>
+          <t>Partially Threaded</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>__</t>
+          <t>1 1/2"</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
@@ -8300,22 +9014,22 @@
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>25</t>
         </is>
       </c>
       <c r="J129" t="inlineStr">
         <is>
-          <t>91794A825</t>
+          <t>91794A840</t>
         </is>
       </c>
       <c r="K129" t="inlineStr">
         <is>
-          <t>16.25</t>
+          <t>13.35</t>
         </is>
       </c>
       <c r="L129" t="inlineStr">
         <is>
-          <t>2-56</t>
+          <t>10-32</t>
         </is>
       </c>
       <c r="M129" t="inlineStr">
@@ -8327,17 +9041,17 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>5/16"</t>
+          <t>3"</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Fully Threaded</t>
+          <t>Partially Threaded</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>__</t>
+          <t>1 1/2"</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
@@ -8367,22 +9081,22 @@
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>25</t>
         </is>
       </c>
       <c r="J130" t="inlineStr">
         <is>
-          <t>91794A826</t>
+          <t>91794A842</t>
         </is>
       </c>
       <c r="K130" t="inlineStr">
         <is>
-          <t>16.44</t>
+          <t>16.05</t>
         </is>
       </c>
       <c r="L130" t="inlineStr">
         <is>
-          <t>2-56</t>
+          <t>10-32</t>
         </is>
       </c>
       <c r="M130" t="inlineStr">
@@ -8394,7 +9108,7 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>3/8"</t>
+          <t>1/2"</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
@@ -8409,12 +9123,12 @@
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>0.313"</t>
+          <t>0.357"</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>0.180"</t>
+          <t>0.205"</t>
         </is>
       </c>
       <c r="F131" t="inlineStr">
@@ -8434,22 +9148,22 @@
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>50</t>
         </is>
       </c>
       <c r="J131" t="inlineStr">
         <is>
-          <t>91794A827</t>
+          <t>91794A291</t>
         </is>
       </c>
       <c r="K131" t="inlineStr">
         <is>
-          <t>17.15</t>
+          <t>14.20</t>
         </is>
       </c>
       <c r="L131" t="inlineStr">
         <is>
-          <t>2-56</t>
+          <t>12-24</t>
         </is>
       </c>
       <c r="M131" t="inlineStr">
@@ -8461,7 +9175,7 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>7/16"</t>
+          <t>5/8"</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
@@ -8476,12 +9190,12 @@
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>0.313"</t>
+          <t>0.357"</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>0.180"</t>
+          <t>0.205"</t>
         </is>
       </c>
       <c r="F132" t="inlineStr">
@@ -8501,22 +9215,22 @@
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>50</t>
         </is>
       </c>
       <c r="J132" t="inlineStr">
         <is>
-          <t>91794A828</t>
+          <t>91794A293</t>
         </is>
       </c>
       <c r="K132" t="inlineStr">
         <is>
-          <t>17.72</t>
+          <t>12.94</t>
         </is>
       </c>
       <c r="L132" t="inlineStr">
         <is>
-          <t>2-56</t>
+          <t>12-24</t>
         </is>
       </c>
       <c r="M132" t="inlineStr">
@@ -8528,7 +9242,7 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>1/2"</t>
+          <t>3/4"</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
@@ -8543,12 +9257,12 @@
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>0.313"</t>
+          <t>0.357"</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>0.180"</t>
+          <t>0.205"</t>
         </is>
       </c>
       <c r="F133" t="inlineStr">
@@ -8568,22 +9282,22 @@
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>50</t>
         </is>
       </c>
       <c r="J133" t="inlineStr">
         <is>
-          <t>91794A829</t>
+          <t>91794A295</t>
         </is>
       </c>
       <c r="K133" t="inlineStr">
         <is>
-          <t>18.17</t>
+          <t>13.80</t>
         </is>
       </c>
       <c r="L133" t="inlineStr">
         <is>
-          <t>2-56</t>
+          <t>12-24</t>
         </is>
       </c>
       <c r="M133" t="inlineStr">
@@ -8595,7 +9309,7 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>5/8"</t>
+          <t>1"</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
@@ -8610,12 +9324,12 @@
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>0.313"</t>
+          <t>0.357"</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>0.180"</t>
+          <t>0.205"</t>
         </is>
       </c>
       <c r="F134" t="inlineStr">
@@ -8635,22 +9349,22 @@
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>50</t>
         </is>
       </c>
       <c r="J134" t="inlineStr">
         <is>
-          <t>91794A830</t>
+          <t>91794A967</t>
         </is>
       </c>
       <c r="K134" t="inlineStr">
         <is>
-          <t>20.99</t>
+          <t>18.50</t>
         </is>
       </c>
       <c r="L134" t="inlineStr">
         <is>
-          <t>2-56</t>
+          <t>12-24</t>
         </is>
       </c>
       <c r="M134" t="inlineStr">
@@ -8662,7 +9376,7 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>3/4"</t>
+          <t>3/8"</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
@@ -8677,17 +9391,17 @@
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>0.313"</t>
+          <t>0.414"</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>0.180"</t>
+          <t>0.237"</t>
         </is>
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>Passivated</t>
+          <t>__</t>
         </is>
       </c>
       <c r="G135" t="inlineStr">
@@ -8707,17 +9421,17 @@
       </c>
       <c r="J135" t="inlineStr">
         <is>
-          <t>91794A831</t>
+          <t>91794A764</t>
         </is>
       </c>
       <c r="K135" t="inlineStr">
         <is>
-          <t>12.39</t>
+          <t>11.37</t>
         </is>
       </c>
       <c r="L135" t="inlineStr">
         <is>
-          <t>2-56</t>
+          <t>1/4"-20</t>
         </is>
       </c>
       <c r="M135" t="inlineStr">
@@ -8729,7 +9443,7 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>7/8"</t>
+          <t>1/2"</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
@@ -8744,12 +9458,12 @@
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>0.313"</t>
+          <t>0.414"</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>0.180"</t>
+          <t>0.237"</t>
         </is>
       </c>
       <c r="F136" t="inlineStr">
@@ -8774,17 +9488,17 @@
       </c>
       <c r="J136" t="inlineStr">
         <is>
-          <t>91794A832</t>
+          <t>91794A537</t>
         </is>
       </c>
       <c r="K136" t="inlineStr">
         <is>
-          <t>12.98</t>
+          <t>13.90</t>
         </is>
       </c>
       <c r="L136" t="inlineStr">
         <is>
-          <t>2-56</t>
+          <t>1/4"-20</t>
         </is>
       </c>
       <c r="M136" t="inlineStr">
@@ -8796,7 +9510,7 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>1"</t>
+          <t>5/8"</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
@@ -8811,12 +9525,12 @@
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>0.313"</t>
+          <t>0.414"</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>0.180"</t>
+          <t>0.237"</t>
         </is>
       </c>
       <c r="F137" t="inlineStr">
@@ -8841,17 +9555,17 @@
       </c>
       <c r="J137" t="inlineStr">
         <is>
-          <t>91794A833</t>
+          <t>91794A539</t>
         </is>
       </c>
       <c r="K137" t="inlineStr">
         <is>
-          <t>14.15</t>
+          <t>15.46</t>
         </is>
       </c>
       <c r="L137" t="inlineStr">
         <is>
-          <t>2-56</t>
+          <t>1/4"-20</t>
         </is>
       </c>
       <c r="M137" t="inlineStr">
@@ -8863,7 +9577,7 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>1 1/4"</t>
+          <t>3/4"</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
@@ -8878,12 +9592,12 @@
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>0.313"</t>
+          <t>0.414"</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>0.180"</t>
+          <t>0.237"</t>
         </is>
       </c>
       <c r="F138" t="inlineStr">
@@ -8903,22 +9617,22 @@
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>25</t>
         </is>
       </c>
       <c r="J138" t="inlineStr">
         <is>
-          <t>91794A835</t>
+          <t>91794A540</t>
         </is>
       </c>
       <c r="K138" t="inlineStr">
         <is>
-          <t>17.86</t>
+          <t>9.15</t>
         </is>
       </c>
       <c r="L138" t="inlineStr">
         <is>
-          <t>2-56</t>
+          <t>1/4"-20</t>
         </is>
       </c>
       <c r="M138" t="inlineStr">
@@ -8930,7 +9644,7 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>1 1/2"</t>
+          <t>1"</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
@@ -8945,12 +9659,12 @@
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>0.313"</t>
+          <t>0.414"</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>0.180"</t>
+          <t>0.237"</t>
         </is>
       </c>
       <c r="F139" t="inlineStr">
@@ -8970,22 +9684,22 @@
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>25</t>
         </is>
       </c>
       <c r="J139" t="inlineStr">
         <is>
-          <t>91794A836</t>
+          <t>91794A542</t>
         </is>
       </c>
       <c r="K139" t="inlineStr">
         <is>
-          <t>19.11</t>
+          <t>10.14</t>
         </is>
       </c>
       <c r="L139" t="inlineStr">
         <is>
-          <t>2-56</t>
+          <t>1/4"-20</t>
         </is>
       </c>
       <c r="M139" t="inlineStr">
@@ -8997,7 +9711,7 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>1 3/4"</t>
+          <t>1 1/4"</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
@@ -9012,12 +9726,12 @@
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>0.313"</t>
+          <t>0.414"</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>0.180"</t>
+          <t>0.237"</t>
         </is>
       </c>
       <c r="F140" t="inlineStr">
@@ -9037,22 +9751,22 @@
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>25</t>
         </is>
       </c>
       <c r="J140" t="inlineStr">
         <is>
-          <t>91794A837</t>
+          <t>91794A544</t>
         </is>
       </c>
       <c r="K140" t="inlineStr">
         <is>
-          <t>22.71</t>
+          <t>10.56</t>
         </is>
       </c>
       <c r="L140" t="inlineStr">
         <is>
-          <t>2-56</t>
+          <t>1/4"-20</t>
         </is>
       </c>
       <c r="M140" t="inlineStr">
@@ -9064,7 +9778,7 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>2"</t>
+          <t>1 1/2"</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
@@ -9079,12 +9793,12 @@
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>0.313"</t>
+          <t>0.414"</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>0.180"</t>
+          <t>0.237"</t>
         </is>
       </c>
       <c r="F141" t="inlineStr">
@@ -9109,17 +9823,17 @@
       </c>
       <c r="J141" t="inlineStr">
         <is>
-          <t>91794A838</t>
+          <t>91794A546</t>
         </is>
       </c>
       <c r="K141" t="inlineStr">
         <is>
-          <t>12.58</t>
+          <t>12.56</t>
         </is>
       </c>
       <c r="L141" t="inlineStr">
         <is>
-          <t>2-56</t>
+          <t>1/4"-20</t>
         </is>
       </c>
       <c r="M141" t="inlineStr">
@@ -9131,27 +9845,27 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>2 1/4"</t>
+          <t>2"</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Partially Threaded</t>
+          <t>Fully Threaded</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>1 1/2"</t>
+          <t>__</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>0.313"</t>
+          <t>0.414"</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>0.180"</t>
+          <t>0.237"</t>
         </is>
       </c>
       <c r="F142" t="inlineStr">
@@ -9176,17 +9890,17 @@
       </c>
       <c r="J142" t="inlineStr">
         <is>
-          <t>91794A839</t>
+          <t>91794A550</t>
         </is>
       </c>
       <c r="K142" t="inlineStr">
         <is>
-          <t>12.84</t>
+          <t>13.72</t>
         </is>
       </c>
       <c r="L142" t="inlineStr">
         <is>
-          <t>2-56</t>
+          <t>1/4"-20</t>
         </is>
       </c>
       <c r="M142" t="inlineStr">
@@ -9198,27 +9912,27 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>2 1/2"</t>
+          <t>1/2"</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Partially Threaded</t>
+          <t>Fully Threaded</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>1 1/2"</t>
+          <t>__</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>0.313"</t>
+          <t>0.414"</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>0.180"</t>
+          <t>0.237"</t>
         </is>
       </c>
       <c r="F143" t="inlineStr">
@@ -9243,17 +9957,17 @@
       </c>
       <c r="J143" t="inlineStr">
         <is>
-          <t>91794A840</t>
+          <t>91794A557</t>
         </is>
       </c>
       <c r="K143" t="inlineStr">
         <is>
-          <t>13.35</t>
+          <t>8.17</t>
         </is>
       </c>
       <c r="L143" t="inlineStr">
         <is>
-          <t>2-56</t>
+          <t>1/4"-28</t>
         </is>
       </c>
       <c r="M143" t="inlineStr">
@@ -9265,27 +9979,27 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>3"</t>
+          <t>5/8"</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Partially Threaded</t>
+          <t>Fully Threaded</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>1 1/2"</t>
+          <t>__</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>0.313"</t>
+          <t>0.414"</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>0.180"</t>
+          <t>0.237"</t>
         </is>
       </c>
       <c r="F144" t="inlineStr">
@@ -9310,17 +10024,17 @@
       </c>
       <c r="J144" t="inlineStr">
         <is>
-          <t>91794A842</t>
+          <t>91794A558</t>
         </is>
       </c>
       <c r="K144" t="inlineStr">
         <is>
-          <t>16.05</t>
+          <t>8.68</t>
         </is>
       </c>
       <c r="L144" t="inlineStr">
         <is>
-          <t>2-56</t>
+          <t>1/4"-28</t>
         </is>
       </c>
       <c r="M144" t="inlineStr">
@@ -9332,22 +10046,62 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>12-24</t>
-        </is>
-      </c>
-      <c r="B145" t="inlineStr"/>
-      <c r="C145" t="inlineStr"/>
-      <c r="D145" t="inlineStr"/>
-      <c r="E145" t="inlineStr"/>
-      <c r="F145" t="inlineStr"/>
-      <c r="G145" t="inlineStr"/>
-      <c r="H145" t="inlineStr"/>
-      <c r="I145" t="inlineStr"/>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
+          <t>3/4"</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>Fully Threaded</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>__</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>0.414"</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>0.237"</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>Passivated</t>
+        </is>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>70,000</t>
+        </is>
+      </c>
+      <c r="H145" t="inlineStr">
+        <is>
+          <t>ASME B18.6.3</t>
+        </is>
+      </c>
+      <c r="I145" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="J145" t="inlineStr">
+        <is>
+          <t>91794A559</t>
+        </is>
+      </c>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>11.39</t>
+        </is>
+      </c>
       <c r="L145" t="inlineStr">
         <is>
-          <t>2-56</t>
+          <t>1/4"-28</t>
         </is>
       </c>
       <c r="M145" t="inlineStr">
@@ -9359,7 +10113,7 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>1/2"</t>
+          <t>1"</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
@@ -9374,17 +10128,17 @@
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>0.357"</t>
+          <t>0.414"</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>0.205"</t>
+          <t>0.237"</t>
         </is>
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>Passivated</t>
+          <t>__</t>
         </is>
       </c>
       <c r="G146" t="inlineStr">
@@ -9404,17 +10158,17 @@
       </c>
       <c r="J146" t="inlineStr">
         <is>
-          <t>91794A291</t>
+          <t>91794A786</t>
         </is>
       </c>
       <c r="K146" t="inlineStr">
         <is>
-          <t>14.20</t>
+          <t>19.33</t>
         </is>
       </c>
       <c r="L146" t="inlineStr">
         <is>
-          <t>2-56</t>
+          <t>1/4"-28</t>
         </is>
       </c>
       <c r="M146" t="inlineStr">
@@ -9426,7 +10180,7 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>5/8"</t>
+          <t>1/2"</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
@@ -9441,12 +10195,12 @@
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>0.357"</t>
+          <t>0.518"</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>0.205"</t>
+          <t>0.295"</t>
         </is>
       </c>
       <c r="F147" t="inlineStr">
@@ -9466,22 +10220,22 @@
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>25</t>
         </is>
       </c>
       <c r="J147" t="inlineStr">
         <is>
-          <t>91794A293</t>
+          <t>91794A578</t>
         </is>
       </c>
       <c r="K147" t="inlineStr">
         <is>
-          <t>12.94</t>
+          <t>12.82</t>
         </is>
       </c>
       <c r="L147" t="inlineStr">
         <is>
-          <t>2-56</t>
+          <t>5/16"-18</t>
         </is>
       </c>
       <c r="M147" t="inlineStr">
@@ -9508,12 +10262,12 @@
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>0.357"</t>
+          <t>0.518"</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>0.205"</t>
+          <t>0.295"</t>
         </is>
       </c>
       <c r="F148" t="inlineStr">
@@ -9533,22 +10287,22 @@
       </c>
       <c r="I148" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>10</t>
         </is>
       </c>
       <c r="J148" t="inlineStr">
         <is>
-          <t>91794A295</t>
+          <t>91794A581</t>
         </is>
       </c>
       <c r="K148" t="inlineStr">
         <is>
-          <t>13.80</t>
+          <t>6.33</t>
         </is>
       </c>
       <c r="L148" t="inlineStr">
         <is>
-          <t>2-56</t>
+          <t>5/16"-18</t>
         </is>
       </c>
       <c r="M148" t="inlineStr">
@@ -9575,12 +10329,12 @@
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>0.357"</t>
+          <t>0.518"</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>0.205"</t>
+          <t>0.295"</t>
         </is>
       </c>
       <c r="F149" t="inlineStr">
@@ -9600,22 +10354,22 @@
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>10</t>
         </is>
       </c>
       <c r="J149" t="inlineStr">
         <is>
-          <t>91794A967</t>
+          <t>91794A583</t>
         </is>
       </c>
       <c r="K149" t="inlineStr">
         <is>
-          <t>18.50</t>
+          <t>7.92</t>
         </is>
       </c>
       <c r="L149" t="inlineStr">
         <is>
-          <t>2-56</t>
+          <t>5/16"-18</t>
         </is>
       </c>
       <c r="M149" t="inlineStr">
@@ -9627,7 +10381,7 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>3/8"</t>
+          <t>1 1/2"</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
@@ -9642,12 +10396,12 @@
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>0.414"</t>
+          <t>0.518"</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>0.237"</t>
+          <t>0.295"</t>
         </is>
       </c>
       <c r="F150" t="inlineStr">
@@ -9667,22 +10421,22 @@
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>10</t>
         </is>
       </c>
       <c r="J150" t="inlineStr">
         <is>
-          <t>91794A764</t>
+          <t>91794A801</t>
         </is>
       </c>
       <c r="K150" t="inlineStr">
         <is>
-          <t>11.37</t>
+          <t>7.46</t>
         </is>
       </c>
       <c r="L150" t="inlineStr">
         <is>
-          <t>1/4"-20</t>
+          <t>5/16"-18</t>
         </is>
       </c>
       <c r="M150" t="inlineStr">
@@ -9694,7 +10448,7 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>1/2"</t>
+          <t>1 3/4"</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
@@ -9709,12 +10463,12 @@
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>0.414"</t>
+          <t>0.518"</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>0.237"</t>
+          <t>0.295"</t>
         </is>
       </c>
       <c r="F151" t="inlineStr">
@@ -9734,22 +10488,22 @@
       </c>
       <c r="I151" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>10</t>
         </is>
       </c>
       <c r="J151" t="inlineStr">
         <is>
-          <t>91794A537</t>
+          <t>91794A589</t>
         </is>
       </c>
       <c r="K151" t="inlineStr">
         <is>
-          <t>13.90</t>
+          <t>10.85</t>
         </is>
       </c>
       <c r="L151" t="inlineStr">
         <is>
-          <t>1/4"-20</t>
+          <t>5/16"-18</t>
         </is>
       </c>
       <c r="M151" t="inlineStr">
@@ -9761,7 +10515,7 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>5/8"</t>
+          <t>2"</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
@@ -9776,17 +10530,17 @@
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>0.414"</t>
+          <t>0.518"</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>0.237"</t>
+          <t>0.295"</t>
         </is>
       </c>
       <c r="F152" t="inlineStr">
         <is>
-          <t>Passivated</t>
+          <t>__</t>
         </is>
       </c>
       <c r="G152" t="inlineStr">
@@ -9801,22 +10555,22 @@
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>10</t>
         </is>
       </c>
       <c r="J152" t="inlineStr">
         <is>
-          <t>91794A539</t>
+          <t>91794A824</t>
         </is>
       </c>
       <c r="K152" t="inlineStr">
         <is>
-          <t>15.46</t>
+          <t>10.53</t>
         </is>
       </c>
       <c r="L152" t="inlineStr">
         <is>
-          <t>1/4"-20</t>
+          <t>5/16"-18</t>
         </is>
       </c>
       <c r="M152" t="inlineStr">
@@ -9828,7 +10582,7 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>3/4"</t>
+          <t>1/2"</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
@@ -9843,12 +10597,12 @@
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>0.414"</t>
+          <t>0.622"</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>0.237"</t>
+          <t>0.355"</t>
         </is>
       </c>
       <c r="F153" t="inlineStr">
@@ -9868,22 +10622,22 @@
       </c>
       <c r="I153" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>10</t>
         </is>
       </c>
       <c r="J153" t="inlineStr">
         <is>
-          <t>91794A540</t>
+          <t>91794A845</t>
         </is>
       </c>
       <c r="K153" t="inlineStr">
         <is>
-          <t>9.15</t>
+          <t>12.43</t>
         </is>
       </c>
       <c r="L153" t="inlineStr">
         <is>
-          <t>1/4"-20</t>
+          <t>3/8"-16</t>
         </is>
       </c>
       <c r="M153" t="inlineStr">
@@ -9910,12 +10664,12 @@
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>0.414"</t>
+          <t>0.622"</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>0.237"</t>
+          <t>0.355"</t>
         </is>
       </c>
       <c r="F154" t="inlineStr">
@@ -9935,22 +10689,22 @@
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>10</t>
         </is>
       </c>
       <c r="J154" t="inlineStr">
         <is>
-          <t>91794A542</t>
+          <t>91794A922</t>
         </is>
       </c>
       <c r="K154" t="inlineStr">
         <is>
-          <t>10.14</t>
+          <t>11.16</t>
         </is>
       </c>
       <c r="L154" t="inlineStr">
         <is>
-          <t>1/4"-20</t>
+          <t>3/8"-16</t>
         </is>
       </c>
       <c r="M154" t="inlineStr">
@@ -9962,7 +10716,7 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>1 1/4"</t>
+          <t>2"</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
@@ -9977,12 +10731,12 @@
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>0.414"</t>
+          <t>0.622"</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>0.237"</t>
+          <t>0.355"</t>
         </is>
       </c>
       <c r="F155" t="inlineStr">
@@ -10002,1111 +10756,25 @@
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>5</t>
         </is>
       </c>
       <c r="J155" t="inlineStr">
         <is>
-          <t>91794A544</t>
+          <t>91794A944</t>
         </is>
       </c>
       <c r="K155" t="inlineStr">
         <is>
-          <t>10.56</t>
+          <t>10.78</t>
         </is>
       </c>
       <c r="L155" t="inlineStr">
         <is>
-          <t>1/4"-20</t>
+          <t>3/8"-16</t>
         </is>
       </c>
       <c r="M155" t="inlineStr">
-        <is>
-          <t>18-8 Stainless Steel</t>
-        </is>
-      </c>
-    </row>
-    <row r="156">
-      <c r="A156" t="inlineStr">
-        <is>
-          <t>1 1/2"</t>
-        </is>
-      </c>
-      <c r="B156" t="inlineStr">
-        <is>
-          <t>Fully Threaded</t>
-        </is>
-      </c>
-      <c r="C156" t="inlineStr">
-        <is>
-          <t>__</t>
-        </is>
-      </c>
-      <c r="D156" t="inlineStr">
-        <is>
-          <t>0.414"</t>
-        </is>
-      </c>
-      <c r="E156" t="inlineStr">
-        <is>
-          <t>0.237"</t>
-        </is>
-      </c>
-      <c r="F156" t="inlineStr">
-        <is>
-          <t>Passivated</t>
-        </is>
-      </c>
-      <c r="G156" t="inlineStr">
-        <is>
-          <t>70,000</t>
-        </is>
-      </c>
-      <c r="H156" t="inlineStr">
-        <is>
-          <t>ASME B18.6.3</t>
-        </is>
-      </c>
-      <c r="I156" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
-      <c r="J156" t="inlineStr">
-        <is>
-          <t>91794A546</t>
-        </is>
-      </c>
-      <c r="K156" t="inlineStr">
-        <is>
-          <t>12.56</t>
-        </is>
-      </c>
-      <c r="L156" t="inlineStr">
-        <is>
-          <t>1/4"-20</t>
-        </is>
-      </c>
-      <c r="M156" t="inlineStr">
-        <is>
-          <t>18-8 Stainless Steel</t>
-        </is>
-      </c>
-    </row>
-    <row r="157">
-      <c r="A157" t="inlineStr">
-        <is>
-          <t>2"</t>
-        </is>
-      </c>
-      <c r="B157" t="inlineStr">
-        <is>
-          <t>Fully Threaded</t>
-        </is>
-      </c>
-      <c r="C157" t="inlineStr">
-        <is>
-          <t>__</t>
-        </is>
-      </c>
-      <c r="D157" t="inlineStr">
-        <is>
-          <t>0.414"</t>
-        </is>
-      </c>
-      <c r="E157" t="inlineStr">
-        <is>
-          <t>0.237"</t>
-        </is>
-      </c>
-      <c r="F157" t="inlineStr">
-        <is>
-          <t>Passivated</t>
-        </is>
-      </c>
-      <c r="G157" t="inlineStr">
-        <is>
-          <t>70,000</t>
-        </is>
-      </c>
-      <c r="H157" t="inlineStr">
-        <is>
-          <t>ASME B18.6.3</t>
-        </is>
-      </c>
-      <c r="I157" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
-      <c r="J157" t="inlineStr">
-        <is>
-          <t>91794A550</t>
-        </is>
-      </c>
-      <c r="K157" t="inlineStr">
-        <is>
-          <t>13.72</t>
-        </is>
-      </c>
-      <c r="L157" t="inlineStr">
-        <is>
-          <t>1/4"-20</t>
-        </is>
-      </c>
-      <c r="M157" t="inlineStr">
-        <is>
-          <t>18-8 Stainless Steel</t>
-        </is>
-      </c>
-    </row>
-    <row r="158">
-      <c r="A158" t="inlineStr">
-        <is>
-          <t>1/4"-28</t>
-        </is>
-      </c>
-      <c r="B158" t="inlineStr"/>
-      <c r="C158" t="inlineStr"/>
-      <c r="D158" t="inlineStr"/>
-      <c r="E158" t="inlineStr"/>
-      <c r="F158" t="inlineStr"/>
-      <c r="G158" t="inlineStr"/>
-      <c r="H158" t="inlineStr"/>
-      <c r="I158" t="inlineStr"/>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr">
-        <is>
-          <t>1/4"-20</t>
-        </is>
-      </c>
-      <c r="M158" t="inlineStr">
-        <is>
-          <t>18-8 Stainless Steel</t>
-        </is>
-      </c>
-    </row>
-    <row r="159">
-      <c r="A159" t="inlineStr">
-        <is>
-          <t>1/2"</t>
-        </is>
-      </c>
-      <c r="B159" t="inlineStr">
-        <is>
-          <t>Fully Threaded</t>
-        </is>
-      </c>
-      <c r="C159" t="inlineStr">
-        <is>
-          <t>__</t>
-        </is>
-      </c>
-      <c r="D159" t="inlineStr">
-        <is>
-          <t>0.414"</t>
-        </is>
-      </c>
-      <c r="E159" t="inlineStr">
-        <is>
-          <t>0.237"</t>
-        </is>
-      </c>
-      <c r="F159" t="inlineStr">
-        <is>
-          <t>Passivated</t>
-        </is>
-      </c>
-      <c r="G159" t="inlineStr">
-        <is>
-          <t>70,000</t>
-        </is>
-      </c>
-      <c r="H159" t="inlineStr">
-        <is>
-          <t>ASME B18.6.3</t>
-        </is>
-      </c>
-      <c r="I159" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
-      <c r="J159" t="inlineStr">
-        <is>
-          <t>91794A557</t>
-        </is>
-      </c>
-      <c r="K159" t="inlineStr">
-        <is>
-          <t>8.17</t>
-        </is>
-      </c>
-      <c r="L159" t="inlineStr">
-        <is>
-          <t>1/4"-20</t>
-        </is>
-      </c>
-      <c r="M159" t="inlineStr">
-        <is>
-          <t>18-8 Stainless Steel</t>
-        </is>
-      </c>
-    </row>
-    <row r="160">
-      <c r="A160" t="inlineStr">
-        <is>
-          <t>5/8"</t>
-        </is>
-      </c>
-      <c r="B160" t="inlineStr">
-        <is>
-          <t>Fully Threaded</t>
-        </is>
-      </c>
-      <c r="C160" t="inlineStr">
-        <is>
-          <t>__</t>
-        </is>
-      </c>
-      <c r="D160" t="inlineStr">
-        <is>
-          <t>0.414"</t>
-        </is>
-      </c>
-      <c r="E160" t="inlineStr">
-        <is>
-          <t>0.237"</t>
-        </is>
-      </c>
-      <c r="F160" t="inlineStr">
-        <is>
-          <t>Passivated</t>
-        </is>
-      </c>
-      <c r="G160" t="inlineStr">
-        <is>
-          <t>70,000</t>
-        </is>
-      </c>
-      <c r="H160" t="inlineStr">
-        <is>
-          <t>ASME B18.6.3</t>
-        </is>
-      </c>
-      <c r="I160" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
-      <c r="J160" t="inlineStr">
-        <is>
-          <t>91794A558</t>
-        </is>
-      </c>
-      <c r="K160" t="inlineStr">
-        <is>
-          <t>8.68</t>
-        </is>
-      </c>
-      <c r="L160" t="inlineStr">
-        <is>
-          <t>1/4"-20</t>
-        </is>
-      </c>
-      <c r="M160" t="inlineStr">
-        <is>
-          <t>18-8 Stainless Steel</t>
-        </is>
-      </c>
-    </row>
-    <row r="161">
-      <c r="A161" t="inlineStr">
-        <is>
-          <t>3/4"</t>
-        </is>
-      </c>
-      <c r="B161" t="inlineStr">
-        <is>
-          <t>Fully Threaded</t>
-        </is>
-      </c>
-      <c r="C161" t="inlineStr">
-        <is>
-          <t>__</t>
-        </is>
-      </c>
-      <c r="D161" t="inlineStr">
-        <is>
-          <t>0.414"</t>
-        </is>
-      </c>
-      <c r="E161" t="inlineStr">
-        <is>
-          <t>0.237"</t>
-        </is>
-      </c>
-      <c r="F161" t="inlineStr">
-        <is>
-          <t>Passivated</t>
-        </is>
-      </c>
-      <c r="G161" t="inlineStr">
-        <is>
-          <t>70,000</t>
-        </is>
-      </c>
-      <c r="H161" t="inlineStr">
-        <is>
-          <t>ASME B18.6.3</t>
-        </is>
-      </c>
-      <c r="I161" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
-      <c r="J161" t="inlineStr">
-        <is>
-          <t>91794A559</t>
-        </is>
-      </c>
-      <c r="K161" t="inlineStr">
-        <is>
-          <t>11.39</t>
-        </is>
-      </c>
-      <c r="L161" t="inlineStr">
-        <is>
-          <t>1/4"-20</t>
-        </is>
-      </c>
-      <c r="M161" t="inlineStr">
-        <is>
-          <t>18-8 Stainless Steel</t>
-        </is>
-      </c>
-    </row>
-    <row r="162">
-      <c r="A162" t="inlineStr">
-        <is>
-          <t>1"</t>
-        </is>
-      </c>
-      <c r="B162" t="inlineStr">
-        <is>
-          <t>Fully Threaded</t>
-        </is>
-      </c>
-      <c r="C162" t="inlineStr">
-        <is>
-          <t>__</t>
-        </is>
-      </c>
-      <c r="D162" t="inlineStr">
-        <is>
-          <t>0.414"</t>
-        </is>
-      </c>
-      <c r="E162" t="inlineStr">
-        <is>
-          <t>0.237"</t>
-        </is>
-      </c>
-      <c r="F162" t="inlineStr">
-        <is>
-          <t>__</t>
-        </is>
-      </c>
-      <c r="G162" t="inlineStr">
-        <is>
-          <t>70,000</t>
-        </is>
-      </c>
-      <c r="H162" t="inlineStr">
-        <is>
-          <t>ASME B18.6.3</t>
-        </is>
-      </c>
-      <c r="I162" t="inlineStr">
-        <is>
-          <t>50</t>
-        </is>
-      </c>
-      <c r="J162" t="inlineStr">
-        <is>
-          <t>91794A786</t>
-        </is>
-      </c>
-      <c r="K162" t="inlineStr">
-        <is>
-          <t>19.33</t>
-        </is>
-      </c>
-      <c r="L162" t="inlineStr">
-        <is>
-          <t>1/4"-20</t>
-        </is>
-      </c>
-      <c r="M162" t="inlineStr">
-        <is>
-          <t>18-8 Stainless Steel</t>
-        </is>
-      </c>
-    </row>
-    <row r="163">
-      <c r="A163" t="inlineStr">
-        <is>
-          <t>5/16"-18</t>
-        </is>
-      </c>
-      <c r="B163" t="inlineStr"/>
-      <c r="C163" t="inlineStr"/>
-      <c r="D163" t="inlineStr"/>
-      <c r="E163" t="inlineStr"/>
-      <c r="F163" t="inlineStr"/>
-      <c r="G163" t="inlineStr"/>
-      <c r="H163" t="inlineStr"/>
-      <c r="I163" t="inlineStr"/>
-      <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr">
-        <is>
-          <t>1/4"-20</t>
-        </is>
-      </c>
-      <c r="M163" t="inlineStr">
-        <is>
-          <t>18-8 Stainless Steel</t>
-        </is>
-      </c>
-    </row>
-    <row r="164">
-      <c r="A164" t="inlineStr">
-        <is>
-          <t>1/2"</t>
-        </is>
-      </c>
-      <c r="B164" t="inlineStr">
-        <is>
-          <t>Fully Threaded</t>
-        </is>
-      </c>
-      <c r="C164" t="inlineStr">
-        <is>
-          <t>__</t>
-        </is>
-      </c>
-      <c r="D164" t="inlineStr">
-        <is>
-          <t>0.518"</t>
-        </is>
-      </c>
-      <c r="E164" t="inlineStr">
-        <is>
-          <t>0.295"</t>
-        </is>
-      </c>
-      <c r="F164" t="inlineStr">
-        <is>
-          <t>Passivated</t>
-        </is>
-      </c>
-      <c r="G164" t="inlineStr">
-        <is>
-          <t>70,000</t>
-        </is>
-      </c>
-      <c r="H164" t="inlineStr">
-        <is>
-          <t>ASME B18.6.3</t>
-        </is>
-      </c>
-      <c r="I164" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
-      <c r="J164" t="inlineStr">
-        <is>
-          <t>91794A578</t>
-        </is>
-      </c>
-      <c r="K164" t="inlineStr">
-        <is>
-          <t>12.82</t>
-        </is>
-      </c>
-      <c r="L164" t="inlineStr">
-        <is>
-          <t>1/4"-20</t>
-        </is>
-      </c>
-      <c r="M164" t="inlineStr">
-        <is>
-          <t>18-8 Stainless Steel</t>
-        </is>
-      </c>
-    </row>
-    <row r="165">
-      <c r="A165" t="inlineStr">
-        <is>
-          <t>3/4"</t>
-        </is>
-      </c>
-      <c r="B165" t="inlineStr">
-        <is>
-          <t>Fully Threaded</t>
-        </is>
-      </c>
-      <c r="C165" t="inlineStr">
-        <is>
-          <t>__</t>
-        </is>
-      </c>
-      <c r="D165" t="inlineStr">
-        <is>
-          <t>0.518"</t>
-        </is>
-      </c>
-      <c r="E165" t="inlineStr">
-        <is>
-          <t>0.295"</t>
-        </is>
-      </c>
-      <c r="F165" t="inlineStr">
-        <is>
-          <t>Passivated</t>
-        </is>
-      </c>
-      <c r="G165" t="inlineStr">
-        <is>
-          <t>70,000</t>
-        </is>
-      </c>
-      <c r="H165" t="inlineStr">
-        <is>
-          <t>ASME B18.6.3</t>
-        </is>
-      </c>
-      <c r="I165" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="J165" t="inlineStr">
-        <is>
-          <t>91794A581</t>
-        </is>
-      </c>
-      <c r="K165" t="inlineStr">
-        <is>
-          <t>6.33</t>
-        </is>
-      </c>
-      <c r="L165" t="inlineStr">
-        <is>
-          <t>1/4"-20</t>
-        </is>
-      </c>
-      <c r="M165" t="inlineStr">
-        <is>
-          <t>18-8 Stainless Steel</t>
-        </is>
-      </c>
-    </row>
-    <row r="166">
-      <c r="A166" t="inlineStr">
-        <is>
-          <t>1"</t>
-        </is>
-      </c>
-      <c r="B166" t="inlineStr">
-        <is>
-          <t>Fully Threaded</t>
-        </is>
-      </c>
-      <c r="C166" t="inlineStr">
-        <is>
-          <t>__</t>
-        </is>
-      </c>
-      <c r="D166" t="inlineStr">
-        <is>
-          <t>0.518"</t>
-        </is>
-      </c>
-      <c r="E166" t="inlineStr">
-        <is>
-          <t>0.295"</t>
-        </is>
-      </c>
-      <c r="F166" t="inlineStr">
-        <is>
-          <t>Passivated</t>
-        </is>
-      </c>
-      <c r="G166" t="inlineStr">
-        <is>
-          <t>70,000</t>
-        </is>
-      </c>
-      <c r="H166" t="inlineStr">
-        <is>
-          <t>ASME B18.6.3</t>
-        </is>
-      </c>
-      <c r="I166" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="J166" t="inlineStr">
-        <is>
-          <t>91794A583</t>
-        </is>
-      </c>
-      <c r="K166" t="inlineStr">
-        <is>
-          <t>7.92</t>
-        </is>
-      </c>
-      <c r="L166" t="inlineStr">
-        <is>
-          <t>1/4"-20</t>
-        </is>
-      </c>
-      <c r="M166" t="inlineStr">
-        <is>
-          <t>18-8 Stainless Steel</t>
-        </is>
-      </c>
-    </row>
-    <row r="167">
-      <c r="A167" t="inlineStr">
-        <is>
-          <t>1 1/2"</t>
-        </is>
-      </c>
-      <c r="B167" t="inlineStr">
-        <is>
-          <t>Fully Threaded</t>
-        </is>
-      </c>
-      <c r="C167" t="inlineStr">
-        <is>
-          <t>__</t>
-        </is>
-      </c>
-      <c r="D167" t="inlineStr">
-        <is>
-          <t>0.518"</t>
-        </is>
-      </c>
-      <c r="E167" t="inlineStr">
-        <is>
-          <t>0.295"</t>
-        </is>
-      </c>
-      <c r="F167" t="inlineStr">
-        <is>
-          <t>__</t>
-        </is>
-      </c>
-      <c r="G167" t="inlineStr">
-        <is>
-          <t>70,000</t>
-        </is>
-      </c>
-      <c r="H167" t="inlineStr">
-        <is>
-          <t>ASME B18.6.3</t>
-        </is>
-      </c>
-      <c r="I167" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="J167" t="inlineStr">
-        <is>
-          <t>91794A801</t>
-        </is>
-      </c>
-      <c r="K167" t="inlineStr">
-        <is>
-          <t>7.46</t>
-        </is>
-      </c>
-      <c r="L167" t="inlineStr">
-        <is>
-          <t>1/4"-20</t>
-        </is>
-      </c>
-      <c r="M167" t="inlineStr">
-        <is>
-          <t>18-8 Stainless Steel</t>
-        </is>
-      </c>
-    </row>
-    <row r="168">
-      <c r="A168" t="inlineStr">
-        <is>
-          <t>1 3/4"</t>
-        </is>
-      </c>
-      <c r="B168" t="inlineStr">
-        <is>
-          <t>Fully Threaded</t>
-        </is>
-      </c>
-      <c r="C168" t="inlineStr">
-        <is>
-          <t>__</t>
-        </is>
-      </c>
-      <c r="D168" t="inlineStr">
-        <is>
-          <t>0.518"</t>
-        </is>
-      </c>
-      <c r="E168" t="inlineStr">
-        <is>
-          <t>0.295"</t>
-        </is>
-      </c>
-      <c r="F168" t="inlineStr">
-        <is>
-          <t>Passivated</t>
-        </is>
-      </c>
-      <c r="G168" t="inlineStr">
-        <is>
-          <t>70,000</t>
-        </is>
-      </c>
-      <c r="H168" t="inlineStr">
-        <is>
-          <t>ASME B18.6.3</t>
-        </is>
-      </c>
-      <c r="I168" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="J168" t="inlineStr">
-        <is>
-          <t>91794A589</t>
-        </is>
-      </c>
-      <c r="K168" t="inlineStr">
-        <is>
-          <t>10.85</t>
-        </is>
-      </c>
-      <c r="L168" t="inlineStr">
-        <is>
-          <t>1/4"-20</t>
-        </is>
-      </c>
-      <c r="M168" t="inlineStr">
-        <is>
-          <t>18-8 Stainless Steel</t>
-        </is>
-      </c>
-    </row>
-    <row r="169">
-      <c r="A169" t="inlineStr">
-        <is>
-          <t>2"</t>
-        </is>
-      </c>
-      <c r="B169" t="inlineStr">
-        <is>
-          <t>Fully Threaded</t>
-        </is>
-      </c>
-      <c r="C169" t="inlineStr">
-        <is>
-          <t>__</t>
-        </is>
-      </c>
-      <c r="D169" t="inlineStr">
-        <is>
-          <t>0.518"</t>
-        </is>
-      </c>
-      <c r="E169" t="inlineStr">
-        <is>
-          <t>0.295"</t>
-        </is>
-      </c>
-      <c r="F169" t="inlineStr">
-        <is>
-          <t>__</t>
-        </is>
-      </c>
-      <c r="G169" t="inlineStr">
-        <is>
-          <t>70,000</t>
-        </is>
-      </c>
-      <c r="H169" t="inlineStr">
-        <is>
-          <t>ASME B18.6.3</t>
-        </is>
-      </c>
-      <c r="I169" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="J169" t="inlineStr">
-        <is>
-          <t>91794A824</t>
-        </is>
-      </c>
-      <c r="K169" t="inlineStr">
-        <is>
-          <t>10.53</t>
-        </is>
-      </c>
-      <c r="L169" t="inlineStr">
-        <is>
-          <t>1/4"-20</t>
-        </is>
-      </c>
-      <c r="M169" t="inlineStr">
-        <is>
-          <t>18-8 Stainless Steel</t>
-        </is>
-      </c>
-    </row>
-    <row r="170">
-      <c r="A170" t="inlineStr">
-        <is>
-          <t>3/8"-16</t>
-        </is>
-      </c>
-      <c r="B170" t="inlineStr"/>
-      <c r="C170" t="inlineStr"/>
-      <c r="D170" t="inlineStr"/>
-      <c r="E170" t="inlineStr"/>
-      <c r="F170" t="inlineStr"/>
-      <c r="G170" t="inlineStr"/>
-      <c r="H170" t="inlineStr"/>
-      <c r="I170" t="inlineStr"/>
-      <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
-      <c r="L170" t="inlineStr">
-        <is>
-          <t>1/4"-20</t>
-        </is>
-      </c>
-      <c r="M170" t="inlineStr">
-        <is>
-          <t>18-8 Stainless Steel</t>
-        </is>
-      </c>
-    </row>
-    <row r="171">
-      <c r="A171" t="inlineStr">
-        <is>
-          <t>1/2"</t>
-        </is>
-      </c>
-      <c r="B171" t="inlineStr">
-        <is>
-          <t>Fully Threaded</t>
-        </is>
-      </c>
-      <c r="C171" t="inlineStr">
-        <is>
-          <t>__</t>
-        </is>
-      </c>
-      <c r="D171" t="inlineStr">
-        <is>
-          <t>0.622"</t>
-        </is>
-      </c>
-      <c r="E171" t="inlineStr">
-        <is>
-          <t>0.355"</t>
-        </is>
-      </c>
-      <c r="F171" t="inlineStr">
-        <is>
-          <t>Passivated</t>
-        </is>
-      </c>
-      <c r="G171" t="inlineStr">
-        <is>
-          <t>70,000</t>
-        </is>
-      </c>
-      <c r="H171" t="inlineStr">
-        <is>
-          <t>ASME B18.6.3</t>
-        </is>
-      </c>
-      <c r="I171" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="J171" t="inlineStr">
-        <is>
-          <t>91794A845</t>
-        </is>
-      </c>
-      <c r="K171" t="inlineStr">
-        <is>
-          <t>12.43</t>
-        </is>
-      </c>
-      <c r="L171" t="inlineStr">
-        <is>
-          <t>1/4"-20</t>
-        </is>
-      </c>
-      <c r="M171" t="inlineStr">
-        <is>
-          <t>18-8 Stainless Steel</t>
-        </is>
-      </c>
-    </row>
-    <row r="172">
-      <c r="A172" t="inlineStr">
-        <is>
-          <t>1"</t>
-        </is>
-      </c>
-      <c r="B172" t="inlineStr">
-        <is>
-          <t>Fully Threaded</t>
-        </is>
-      </c>
-      <c r="C172" t="inlineStr">
-        <is>
-          <t>__</t>
-        </is>
-      </c>
-      <c r="D172" t="inlineStr">
-        <is>
-          <t>0.622"</t>
-        </is>
-      </c>
-      <c r="E172" t="inlineStr">
-        <is>
-          <t>0.355"</t>
-        </is>
-      </c>
-      <c r="F172" t="inlineStr">
-        <is>
-          <t>Passivated</t>
-        </is>
-      </c>
-      <c r="G172" t="inlineStr">
-        <is>
-          <t>70,000</t>
-        </is>
-      </c>
-      <c r="H172" t="inlineStr">
-        <is>
-          <t>ASME B18.6.3</t>
-        </is>
-      </c>
-      <c r="I172" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="J172" t="inlineStr">
-        <is>
-          <t>91794A922</t>
-        </is>
-      </c>
-      <c r="K172" t="inlineStr">
-        <is>
-          <t>11.16</t>
-        </is>
-      </c>
-      <c r="L172" t="inlineStr">
-        <is>
-          <t>1/4"-20</t>
-        </is>
-      </c>
-      <c r="M172" t="inlineStr">
-        <is>
-          <t>18-8 Stainless Steel</t>
-        </is>
-      </c>
-    </row>
-    <row r="173">
-      <c r="A173" t="inlineStr">
-        <is>
-          <t>2"</t>
-        </is>
-      </c>
-      <c r="B173" t="inlineStr">
-        <is>
-          <t>Fully Threaded</t>
-        </is>
-      </c>
-      <c r="C173" t="inlineStr">
-        <is>
-          <t>__</t>
-        </is>
-      </c>
-      <c r="D173" t="inlineStr">
-        <is>
-          <t>0.622"</t>
-        </is>
-      </c>
-      <c r="E173" t="inlineStr">
-        <is>
-          <t>0.355"</t>
-        </is>
-      </c>
-      <c r="F173" t="inlineStr">
-        <is>
-          <t>Passivated</t>
-        </is>
-      </c>
-      <c r="G173" t="inlineStr">
-        <is>
-          <t>70,000</t>
-        </is>
-      </c>
-      <c r="H173" t="inlineStr">
-        <is>
-          <t>ASME B18.6.3</t>
-        </is>
-      </c>
-      <c r="I173" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="J173" t="inlineStr">
-        <is>
-          <t>91794A944</t>
-        </is>
-      </c>
-      <c r="K173" t="inlineStr">
-        <is>
-          <t>10.78</t>
-        </is>
-      </c>
-      <c r="L173" t="inlineStr">
-        <is>
-          <t>1/4"-20</t>
-        </is>
-      </c>
-      <c r="M173" t="inlineStr">
         <is>
           <t>18-8 Stainless Steel</t>
         </is>
